--- a/DataSets/BotResults(Mine).xlsx
+++ b/DataSets/BotResults(Mine).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\Dissertation_Artefact\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97913D81-79BB-426A-99C3-72C87ED4717A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE954211-FFD9-42D0-A8A1-CF3E0A7913AD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{54C24EBF-4E94-473C-9F52-99BEA4E6395E}"/>
   </bookViews>
@@ -16,15 +16,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$BL$67:$CE$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$67:$T$140</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AA$25</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AA$26:$AA$35</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$Z$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$Z$2:$Z$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$Z$25</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$Z$26:$Z$35</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$AA$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$AA$2:$AA$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$AA$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$AA$2:$AA$22</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$Z$25</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$Z$26:$Z$35</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="927">
   <si>
     <t>Round/Game</t>
   </si>
@@ -2808,6 +2808,15 @@
   </si>
   <si>
     <t>20180503_184642</t>
+  </si>
+  <si>
+    <t>Avg Overall Game Legnth</t>
+  </si>
+  <si>
+    <t>AVG Game Legnth Diff</t>
+  </si>
+  <si>
+    <t>Avg Game Length VS POSH</t>
   </si>
 </sst>
 </file>
@@ -2974,7 +2983,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3139,13 +3148,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3275,7 +3295,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3397,7 +3416,52 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="45" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="45" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="45" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10259,7 +10323,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10270,7 +10334,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2096658A-97B6-4C88-81ED-5894E229C2B4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>AvgTime</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10374,7 +10438,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10385,7 +10449,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2ABD38A3-F85D-4D2E-9D36-3F7B3FC2EF7C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Win %</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17673,7 +17737,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="919162" y="304800"/>
-              <a:ext cx="4572000" cy="2838450"/>
+              <a:ext cx="5438775" cy="2838450"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17750,8 +17814,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5672137" y="361949"/>
-              <a:ext cx="4586288" cy="2638425"/>
+              <a:off x="6719887" y="361949"/>
+              <a:ext cx="6386513" cy="2638425"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17828,8 +17892,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5691187" y="314325"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="6738937" y="314325"/>
+              <a:ext cx="6372225" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17907,7 +17971,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="852487" y="295275"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:ext cx="5438775" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -18490,26 +18554,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4D8A81-C279-40E8-A672-2309C37F83C5}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:CE182"/>
+  <dimension ref="A1:CE186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E186" sqref="E186"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N186" sqref="C186:N186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11" style="60" customWidth="1"/>
-    <col min="3" max="3" width="12" style="60" customWidth="1"/>
+    <col min="2" max="2" width="11" style="59" customWidth="1"/>
+    <col min="3" max="3" width="12" style="59" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="9" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.5703125" customWidth="1"/>
     <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -18520,8 +18585,8 @@
   <sheetData>
     <row r="1" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -18569,8 +18634,8 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -18618,8 +18683,8 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -18667,8 +18732,8 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -18716,8 +18781,8 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -18765,8 +18830,8 @@
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -18814,8 +18879,8 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -18863,8 +18928,8 @@
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -18930,8 +18995,8 @@
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -18997,8 +19062,8 @@
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -19064,8 +19129,8 @@
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -19131,8 +19196,8 @@
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -19198,8 +19263,8 @@
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -19265,8 +19330,8 @@
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -19332,8 +19397,8 @@
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -19399,8 +19464,8 @@
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -19466,8 +19531,8 @@
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -19533,8 +19598,8 @@
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -19600,8 +19665,8 @@
     </row>
     <row r="19" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -19667,8 +19732,8 @@
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -19734,8 +19799,8 @@
     </row>
     <row r="21" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -19801,8 +19866,8 @@
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -19868,8 +19933,8 @@
     </row>
     <row r="23" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -19936,8 +20001,8 @@
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -19976,8 +20041,8 @@
     </row>
     <row r="25" spans="1:66" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -20043,8 +20108,8 @@
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -20110,8 +20175,8 @@
     </row>
     <row r="27" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -20177,8 +20242,8 @@
     </row>
     <row r="28" spans="1:66" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -20262,8 +20327,8 @@
     </row>
     <row r="29" spans="1:66" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -20347,8 +20412,8 @@
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -20432,8 +20497,8 @@
     </row>
     <row r="31" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -20517,8 +20582,8 @@
     </row>
     <row r="32" spans="1:66" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -20602,8 +20667,8 @@
     </row>
     <row r="33" spans="1:66" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -20687,8 +20752,8 @@
     </row>
     <row r="34" spans="1:66" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -20775,8 +20840,8 @@
     </row>
     <row r="35" spans="1:66" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -20869,8 +20934,8 @@
     </row>
     <row r="36" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -20961,8 +21026,8 @@
     </row>
     <row r="37" spans="1:66" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -21035,8 +21100,8 @@
     </row>
     <row r="38" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -21097,8 +21162,8 @@
     </row>
     <row r="39" spans="1:66" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -21159,8 +21224,8 @@
     </row>
     <row r="40" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -21217,8 +21282,8 @@
     </row>
     <row r="41" spans="1:66" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -21292,8 +21357,8 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -21370,8 +21435,8 @@
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -21451,8 +21516,8 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -21509,8 +21574,8 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -21567,8 +21632,8 @@
     </row>
     <row r="46" spans="1:66" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -21633,8 +21698,8 @@
     </row>
     <row r="47" spans="1:66" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -21708,8 +21773,8 @@
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -21765,8 +21830,8 @@
     </row>
     <row r="49" spans="1:66" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -21831,8 +21896,8 @@
     </row>
     <row r="50" spans="1:66" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -21906,8 +21971,8 @@
     </row>
     <row r="51" spans="1:66" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -21964,8 +22029,8 @@
     </row>
     <row r="52" spans="1:66" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -22030,8 +22095,8 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -22105,8 +22170,8 @@
     </row>
     <row r="54" spans="1:66" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -22169,8 +22234,8 @@
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -22227,8 +22292,8 @@
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -22267,8 +22332,8 @@
     </row>
     <row r="57" spans="1:66" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -22330,8 +22395,8 @@
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -22401,8 +22466,8 @@
     </row>
     <row r="59" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -22425,15 +22490,15 @@
         <f>(T58-U58)/T58*100</f>
         <v>-36.897094494461477</v>
       </c>
-      <c r="W59" s="46">
+      <c r="W59" s="45">
         <f>(W58-Z58)/W58*100</f>
         <v>-14.124282469626371</v>
       </c>
-      <c r="X59" s="46">
+      <c r="X59" s="45">
         <f t="shared" ref="X59:Y59" si="0">(X58-AA58)/X58*100</f>
         <v>-9.1659021009688377</v>
       </c>
-      <c r="Y59" s="46">
+      <c r="Y59" s="45">
         <f t="shared" si="0"/>
         <v>-215.36852082461544</v>
       </c>
@@ -22458,8 +22523,8 @@
     </row>
     <row r="60" spans="1:66" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -22531,8 +22596,8 @@
     </row>
     <row r="61" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -22583,8 +22648,8 @@
     </row>
     <row r="62" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -22635,8 +22700,8 @@
     </row>
     <row r="63" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -22675,8 +22740,8 @@
     </row>
     <row r="64" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -22715,8 +22780,8 @@
     </row>
     <row r="65" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A65" s="36"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
       <c r="D65" s="36"/>
       <c r="E65" s="36"/>
       <c r="F65" s="36"/>
@@ -22755,8 +22820,8 @@
     </row>
     <row r="66" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="38"/>
       <c r="E66" s="38"/>
       <c r="F66" s="38"/>
@@ -22797,10 +22862,10 @@
       <c r="A67" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="55" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="17" t="s">
@@ -23040,10 +23105,10 @@
       <c r="A68" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="57" t="s">
+      <c r="C68" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D68" s="30"/>
@@ -23051,7 +23116,7 @@
       <c r="F68" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G68" s="82">
+      <c r="G68" s="81">
         <v>4.0162037037037033E-3</v>
       </c>
       <c r="H68" s="30">
@@ -23267,10 +23332,10 @@
       <c r="A69" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="B69" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="58" t="s">
+      <c r="C69" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D69" s="33"/>
@@ -23278,7 +23343,7 @@
       <c r="F69" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="83">
+      <c r="G69" s="82">
         <v>5.6944444444444438E-3</v>
       </c>
       <c r="H69" s="33">
@@ -23490,14 +23555,14 @@
         <v>775</v>
       </c>
     </row>
-    <row r="70" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="57" t="s">
+      <c r="C70" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D70" s="30"/>
@@ -23505,7 +23570,7 @@
       <c r="F70" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G70" s="82">
+      <c r="G70" s="81">
         <v>9.4444444444444445E-3</v>
       </c>
       <c r="H70" s="30">
@@ -23721,10 +23786,10 @@
       <c r="A71" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="58" t="s">
+      <c r="B71" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D71" s="33"/>
@@ -23732,7 +23797,7 @@
       <c r="F71" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G71" s="83">
+      <c r="G71" s="82">
         <v>7.2800925925925915E-3</v>
       </c>
       <c r="H71" s="33">
@@ -23948,10 +24013,10 @@
       <c r="A72" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="57" t="s">
+      <c r="C72" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D72" s="30"/>
@@ -23959,7 +24024,7 @@
       <c r="F72" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G72" s="82">
+      <c r="G72" s="81">
         <v>6.4236111111111117E-3</v>
       </c>
       <c r="H72" s="30">
@@ -24175,10 +24240,10 @@
       <c r="A73" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D73" s="33"/>
@@ -24186,7 +24251,7 @@
       <c r="F73" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G73" s="83">
+      <c r="G73" s="82">
         <v>6.5856481481481469E-3</v>
       </c>
       <c r="H73" s="33">
@@ -24401,10 +24466,10 @@
       <c r="A74" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="57" t="s">
+      <c r="C74" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D74" s="30"/>
@@ -24412,7 +24477,7 @@
       <c r="F74" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G74" s="82">
+      <c r="G74" s="81">
         <v>8.113425925925925E-3</v>
       </c>
       <c r="H74" s="30">
@@ -24627,10 +24692,10 @@
       <c r="A75" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D75" s="33"/>
@@ -24638,7 +24703,7 @@
       <c r="F75" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G75" s="83">
+      <c r="G75" s="82">
         <v>4.1331018518518517E-2</v>
       </c>
       <c r="H75" s="33">
@@ -24849,14 +24914,14 @@
         <v>785</v>
       </c>
     </row>
-    <row r="76" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="57" t="s">
+      <c r="C76" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D76" s="30"/>
@@ -24864,7 +24929,7 @@
       <c r="F76" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G76" s="82">
+      <c r="G76" s="81">
         <v>1.0173611111111111E-2</v>
       </c>
       <c r="H76" s="30">
@@ -25079,10 +25144,10 @@
       <c r="A77" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="58" t="s">
+      <c r="C77" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D77" s="33"/>
@@ -25090,7 +25155,7 @@
       <c r="F77" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G77" s="83">
+      <c r="G77" s="82">
         <v>6.7361111111111103E-3</v>
       </c>
       <c r="H77" s="33">
@@ -25301,14 +25366,14 @@
         <v>187</v>
       </c>
     </row>
-    <row r="78" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:83" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="57" t="s">
+      <c r="C78" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D78" s="30"/>
@@ -25316,7 +25381,7 @@
       <c r="F78" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G78" s="82">
+      <c r="G78" s="81">
         <v>5.6712962962962958E-3</v>
       </c>
       <c r="H78" s="30">
@@ -25527,14 +25592,14 @@
         <v>787</v>
       </c>
     </row>
-    <row r="79" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D79" s="33"/>
@@ -25542,7 +25607,7 @@
       <c r="F79" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G79" s="83">
+      <c r="G79" s="82">
         <v>5.8680555555555543E-3</v>
       </c>
       <c r="H79" s="33">
@@ -25759,10 +25824,10 @@
       <c r="A80" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="57" t="s">
+      <c r="B80" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C80" s="57" t="s">
+      <c r="C80" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D80" s="30"/>
@@ -25770,7 +25835,7 @@
       <c r="F80" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G80" s="82">
+      <c r="G80" s="81">
         <v>9.7222222222222224E-3</v>
       </c>
       <c r="H80" s="30">
@@ -25981,14 +26046,14 @@
         <v>791</v>
       </c>
     </row>
-    <row r="81" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="58" t="s">
+      <c r="B81" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D81" s="33"/>
@@ -25996,7 +26061,7 @@
       <c r="F81" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G81" s="83">
+      <c r="G81" s="82">
         <v>8.611111111111111E-3</v>
       </c>
       <c r="H81" s="33">
@@ -26207,14 +26272,14 @@
         <v>615</v>
       </c>
     </row>
-    <row r="82" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="57" t="s">
+      <c r="B82" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C82" s="57" t="s">
+      <c r="C82" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D82" s="30"/>
@@ -26222,7 +26287,7 @@
       <c r="F82" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G82" s="82">
+      <c r="G82" s="81">
         <v>5.8912037037037032E-3</v>
       </c>
       <c r="H82" s="30">
@@ -26437,10 +26502,10 @@
       <c r="A83" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B83" s="58" t="s">
+      <c r="B83" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D83" s="33"/>
@@ -26448,7 +26513,7 @@
       <c r="F83" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G83" s="83">
+      <c r="G83" s="82">
         <v>5.185185185185185E-3</v>
       </c>
       <c r="H83" s="33">
@@ -26663,10 +26728,10 @@
       <c r="A84" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="B84" s="57" t="s">
+      <c r="B84" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C84" s="57" t="s">
+      <c r="C84" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D84" s="30"/>
@@ -26674,7 +26739,7 @@
       <c r="F84" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G84" s="82">
+      <c r="G84" s="81">
         <v>9.8726851851851857E-3</v>
       </c>
       <c r="H84" s="30">
@@ -26885,14 +26950,14 @@
         <v>799</v>
       </c>
     </row>
-    <row r="85" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="58" t="s">
+      <c r="B85" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="58" t="s">
+      <c r="C85" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D85" s="33"/>
@@ -26900,7 +26965,7 @@
       <c r="F85" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G85" s="83">
+      <c r="G85" s="82">
         <v>6.9212962962962969E-3</v>
       </c>
       <c r="H85" s="33">
@@ -27111,14 +27176,14 @@
         <v>409</v>
       </c>
     </row>
-    <row r="86" spans="1:83" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:83" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="57" t="s">
+      <c r="B86" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="57" t="s">
+      <c r="C86" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D86" s="30"/>
@@ -27126,7 +27191,7 @@
       <c r="F86" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G86" s="82">
+      <c r="G86" s="81">
         <v>5.6712962962962958E-3</v>
       </c>
       <c r="H86" s="30">
@@ -27341,10 +27406,10 @@
       <c r="A87" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="58" t="s">
+      <c r="C87" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D87" s="33"/>
@@ -27352,7 +27417,7 @@
       <c r="F87" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G87" s="83">
+      <c r="G87" s="82">
         <v>6.3310185185185197E-3</v>
       </c>
       <c r="H87" s="33">
@@ -27563,14 +27628,14 @@
         <v>801</v>
       </c>
     </row>
-    <row r="88" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="57" t="s">
+      <c r="B88" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C88" s="57" t="s">
+      <c r="C88" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D88" s="30"/>
@@ -27578,7 +27643,7 @@
       <c r="F88" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G88" s="82">
+      <c r="G88" s="81">
         <v>2.1446759259259259E-2</v>
       </c>
       <c r="H88" s="30">
@@ -27795,10 +27860,10 @@
       <c r="A89" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B89" s="58" t="s">
+      <c r="B89" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D89" s="33"/>
@@ -27806,7 +27871,7 @@
       <c r="F89" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G89" s="83">
+      <c r="G89" s="82">
         <v>9.3287037037037036E-3</v>
       </c>
       <c r="H89" s="33">
@@ -28017,14 +28082,14 @@
         <v>806</v>
       </c>
     </row>
-    <row r="90" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="B90" s="57" t="s">
+      <c r="B90" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="57" t="s">
+      <c r="C90" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D90" s="30"/>
@@ -28032,7 +28097,7 @@
       <c r="F90" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G90" s="82">
+      <c r="G90" s="81">
         <v>6.7476851851851856E-3</v>
       </c>
       <c r="H90" s="30">
@@ -28247,10 +28312,10 @@
       <c r="A91" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B91" s="58" t="s">
+      <c r="B91" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C91" s="58" t="s">
+      <c r="C91" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D91" s="33"/>
@@ -28258,7 +28323,7 @@
       <c r="F91" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G91" s="83">
+      <c r="G91" s="82">
         <v>4.2361111111111106E-3</v>
       </c>
       <c r="H91" s="33">
@@ -28473,10 +28538,10 @@
       <c r="A92" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B92" s="57" t="s">
+      <c r="B92" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C92" s="57" t="s">
+      <c r="C92" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D92" s="30"/>
@@ -28484,7 +28549,7 @@
       <c r="F92" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G92" s="82">
+      <c r="G92" s="81">
         <v>9.4560185185185181E-3</v>
       </c>
       <c r="H92" s="30">
@@ -28695,14 +28760,14 @@
         <v>812</v>
       </c>
     </row>
-    <row r="93" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B93" s="58" t="s">
+      <c r="B93" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C93" s="58" t="s">
+      <c r="C93" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D93" s="33"/>
@@ -28710,7 +28775,7 @@
       <c r="F93" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G93" s="83">
+      <c r="G93" s="82">
         <v>7.1412037037037043E-3</v>
       </c>
       <c r="H93" s="33">
@@ -28925,10 +28990,10 @@
       <c r="A94" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="B94" s="57" t="s">
+      <c r="B94" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C94" s="57" t="s">
+      <c r="C94" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D94" s="30"/>
@@ -28936,7 +29001,7 @@
       <c r="F94" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G94" s="82">
+      <c r="G94" s="81">
         <v>5.8564814814814825E-3</v>
       </c>
       <c r="H94" s="30">
@@ -29151,10 +29216,10 @@
       <c r="A95" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B95" s="58" t="s">
+      <c r="B95" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C95" s="58" t="s">
+      <c r="C95" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D95" s="33"/>
@@ -29162,7 +29227,7 @@
       <c r="F95" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G95" s="83">
+      <c r="G95" s="82">
         <v>6.875E-3</v>
       </c>
       <c r="H95" s="33">
@@ -29377,10 +29442,10 @@
       <c r="A96" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B96" s="57" t="s">
+      <c r="B96" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C96" s="57" t="s">
+      <c r="C96" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D96" s="30"/>
@@ -29388,7 +29453,7 @@
       <c r="F96" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G96" s="82">
+      <c r="G96" s="81">
         <v>1.2743055555555556E-2</v>
       </c>
       <c r="H96" s="30">
@@ -29603,10 +29668,10 @@
       <c r="A97" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="58" t="s">
+      <c r="B97" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C97" s="58" t="s">
+      <c r="C97" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D97" s="33"/>
@@ -29614,7 +29679,7 @@
       <c r="F97" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G97" s="83">
+      <c r="G97" s="82">
         <v>8.4027777777777781E-3</v>
       </c>
       <c r="H97" s="33">
@@ -29827,14 +29892,14 @@
         <v>821</v>
       </c>
     </row>
-    <row r="98" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="B98" s="57" t="s">
+      <c r="B98" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C98" s="57" t="s">
+      <c r="C98" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D98" s="30"/>
@@ -29842,7 +29907,7 @@
       <c r="F98" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G98" s="82">
+      <c r="G98" s="81">
         <v>5.3935185185185188E-3</v>
       </c>
       <c r="H98" s="30">
@@ -30055,14 +30120,14 @@
         <v>824</v>
       </c>
     </row>
-    <row r="99" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="B99" s="58" t="s">
+      <c r="B99" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C99" s="58" t="s">
+      <c r="C99" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D99" s="33"/>
@@ -30070,7 +30135,7 @@
       <c r="F99" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G99" s="83">
+      <c r="G99" s="82">
         <v>4.31712962962963E-3</v>
       </c>
       <c r="H99" s="33">
@@ -30285,10 +30350,10 @@
       <c r="A100" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B100" s="57" t="s">
+      <c r="B100" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C100" s="57" t="s">
+      <c r="C100" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D100" s="30"/>
@@ -30296,7 +30361,7 @@
       <c r="F100" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G100" s="82">
+      <c r="G100" s="81">
         <v>1.042824074074074E-2</v>
       </c>
       <c r="H100" s="30">
@@ -30511,10 +30576,10 @@
       <c r="A101" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C101" s="58" t="s">
+      <c r="C101" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D101" s="33"/>
@@ -30522,7 +30587,7 @@
       <c r="F101" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G101" s="83">
+      <c r="G101" s="82">
         <v>7.4421296296296293E-3</v>
       </c>
       <c r="H101" s="33">
@@ -30733,14 +30798,14 @@
         <v>830</v>
       </c>
     </row>
-    <row r="102" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:83" ht="21" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="B102" s="57" t="s">
+      <c r="B102" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C102" s="57" t="s">
+      <c r="C102" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D102" s="30"/>
@@ -30748,7 +30813,7 @@
       <c r="F102" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G102" s="82">
+      <c r="G102" s="81">
         <v>5.4513888888888884E-3</v>
       </c>
       <c r="H102" s="30">
@@ -30959,14 +31024,14 @@
         <v>833</v>
       </c>
     </row>
-    <row r="103" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="B103" s="58" t="s">
+      <c r="B103" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C103" s="58" t="s">
+      <c r="C103" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D103" s="33"/>
@@ -30974,7 +31039,7 @@
       <c r="F103" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G103" s="83">
+      <c r="G103" s="82">
         <v>6.3310185185185197E-3</v>
       </c>
       <c r="H103" s="33">
@@ -31189,10 +31254,10 @@
       <c r="A104" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="B104" s="57" t="s">
+      <c r="B104" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C104" s="57" t="s">
+      <c r="C104" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D104" s="30"/>
@@ -31200,7 +31265,7 @@
       <c r="F104" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G104" s="82">
+      <c r="G104" s="81">
         <v>1.8518518518518521E-2</v>
       </c>
       <c r="H104" s="30">
@@ -31415,10 +31480,10 @@
       <c r="A105" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="B105" s="58" t="s">
+      <c r="B105" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C105" s="58" t="s">
+      <c r="C105" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D105" s="33"/>
@@ -31426,7 +31491,7 @@
       <c r="F105" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G105" s="83">
+      <c r="G105" s="82">
         <v>1.3125E-2</v>
       </c>
       <c r="H105" s="33">
@@ -31637,14 +31702,14 @@
         <v>836</v>
       </c>
     </row>
-    <row r="106" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="B106" s="57" t="s">
+      <c r="B106" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C106" s="57" t="s">
+      <c r="C106" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D106" s="30"/>
@@ -31652,7 +31717,7 @@
       <c r="F106" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G106" s="82">
+      <c r="G106" s="81">
         <v>5.2777777777777771E-3</v>
       </c>
       <c r="H106" s="30">
@@ -31867,10 +31932,10 @@
       <c r="A107" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="58" t="s">
+      <c r="C107" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D107" s="33"/>
@@ -31878,7 +31943,7 @@
       <c r="F107" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G107" s="83">
+      <c r="G107" s="82">
         <v>6.2268518518518515E-3</v>
       </c>
       <c r="H107" s="33">
@@ -32089,14 +32154,14 @@
         <v>842</v>
       </c>
     </row>
-    <row r="108" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="B108" s="57" t="s">
+      <c r="B108" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C108" s="57" t="s">
+      <c r="C108" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D108" s="30"/>
@@ -32104,7 +32169,7 @@
       <c r="F108" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G108" s="82">
+      <c r="G108" s="81">
         <v>9.8611111111111104E-3</v>
       </c>
       <c r="H108" s="30">
@@ -32315,14 +32380,14 @@
         <v>677</v>
       </c>
     </row>
-    <row r="109" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="B109" s="58" t="s">
+      <c r="B109" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D109" s="33"/>
@@ -32330,7 +32395,7 @@
       <c r="F109" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G109" s="83">
+      <c r="G109" s="82">
         <v>9.3402777777777772E-3</v>
       </c>
       <c r="H109" s="33">
@@ -32545,14 +32610,14 @@
         <v>845</v>
       </c>
     </row>
-    <row r="110" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:83" ht="21" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B110" s="57" t="s">
+      <c r="B110" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C110" s="57" t="s">
+      <c r="C110" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D110" s="30"/>
@@ -32560,7 +32625,7 @@
       <c r="F110" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G110" s="82">
+      <c r="G110" s="81">
         <v>5.9606481481481489E-3</v>
       </c>
       <c r="H110" s="30">
@@ -32771,14 +32836,14 @@
         <v>848</v>
       </c>
     </row>
-    <row r="111" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="B111" s="58" t="s">
+      <c r="B111" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C111" s="58" t="s">
+      <c r="C111" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D111" s="33"/>
@@ -32786,7 +32851,7 @@
       <c r="F111" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G111" s="83">
+      <c r="G111" s="82">
         <v>9.2824074074074076E-3</v>
       </c>
       <c r="H111" s="33">
@@ -32997,14 +33062,14 @@
         <v>851</v>
       </c>
     </row>
-    <row r="112" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="B112" s="57" t="s">
+      <c r="B112" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C112" s="57" t="s">
+      <c r="C112" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D112" s="30"/>
@@ -33012,7 +33077,7 @@
       <c r="F112" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G112" s="82">
+      <c r="G112" s="81">
         <v>3.5474537037037041E-2</v>
       </c>
       <c r="H112" s="30">
@@ -33229,10 +33294,10 @@
       <c r="A113" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="B113" s="58" t="s">
+      <c r="B113" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C113" s="58" t="s">
+      <c r="C113" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D113" s="33"/>
@@ -33240,7 +33305,7 @@
       <c r="F113" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G113" s="83">
+      <c r="G113" s="82">
         <v>8.2754629629629619E-3</v>
       </c>
       <c r="H113" s="33">
@@ -33455,10 +33520,10 @@
       <c r="A114" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="B114" s="57" t="s">
+      <c r="B114" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C114" s="57" t="s">
+      <c r="C114" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D114" s="30"/>
@@ -33466,7 +33531,7 @@
       <c r="F114" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G114" s="82">
+      <c r="G114" s="81">
         <v>7.719907407407408E-3</v>
       </c>
       <c r="H114" s="30">
@@ -33681,10 +33746,10 @@
       <c r="A115" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="B115" s="58" t="s">
+      <c r="B115" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C115" s="58" t="s">
+      <c r="C115" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D115" s="33"/>
@@ -33692,7 +33757,7 @@
       <c r="F115" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G115" s="83">
+      <c r="G115" s="82">
         <v>5.3009259259259251E-3</v>
       </c>
       <c r="H115" s="33">
@@ -33909,10 +33974,10 @@
       <c r="A116" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="B116" s="57" t="s">
+      <c r="B116" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C116" s="57" t="s">
+      <c r="C116" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D116" s="30"/>
@@ -33920,7 +33985,7 @@
       <c r="F116" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G116" s="82">
+      <c r="G116" s="81">
         <v>5.347222222222222E-3</v>
       </c>
       <c r="H116" s="30">
@@ -34131,14 +34196,14 @@
         <v>860</v>
       </c>
     </row>
-    <row r="117" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="B117" s="58" t="s">
+      <c r="B117" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C117" s="58" t="s">
+      <c r="C117" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D117" s="33"/>
@@ -34146,7 +34211,7 @@
       <c r="F117" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G117" s="83">
+      <c r="G117" s="82">
         <v>1.0219907407407408E-2</v>
       </c>
       <c r="H117" s="33">
@@ -34361,10 +34426,10 @@
       <c r="A118" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="B118" s="57" t="s">
+      <c r="B118" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C118" s="57" t="s">
+      <c r="C118" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D118" s="30"/>
@@ -34372,7 +34437,7 @@
       <c r="F118" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G118" s="82">
+      <c r="G118" s="81">
         <v>6.9328703703703696E-3</v>
       </c>
       <c r="H118" s="30">
@@ -34583,14 +34648,14 @@
         <v>863</v>
       </c>
     </row>
-    <row r="119" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:83" ht="21" x14ac:dyDescent="0.25">
       <c r="A119" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="B119" s="58" t="s">
+      <c r="B119" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C119" s="58" t="s">
+      <c r="C119" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D119" s="33"/>
@@ -34598,7 +34663,7 @@
       <c r="F119" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G119" s="83">
+      <c r="G119" s="82">
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="H119" s="33">
@@ -34809,14 +34874,14 @@
         <v>866</v>
       </c>
     </row>
-    <row r="120" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="B120" s="57" t="s">
+      <c r="B120" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C120" s="57" t="s">
+      <c r="C120" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D120" s="30"/>
@@ -34824,7 +34889,7 @@
       <c r="F120" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G120" s="82">
+      <c r="G120" s="81">
         <v>6.5624999999999998E-3</v>
       </c>
       <c r="H120" s="30">
@@ -35035,14 +35100,14 @@
         <v>869</v>
       </c>
     </row>
-    <row r="121" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="B121" s="58" t="s">
+      <c r="B121" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C121" s="58" t="s">
+      <c r="C121" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D121" s="33"/>
@@ -35050,7 +35115,7 @@
       <c r="F121" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G121" s="83">
+      <c r="G121" s="82">
         <v>2.4212962962962964E-2</v>
       </c>
       <c r="H121" s="33">
@@ -35265,10 +35330,10 @@
       <c r="A122" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="B122" s="59" t="s">
+      <c r="B122" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C122" s="59" t="s">
+      <c r="C122" s="58" t="s">
         <v>148</v>
       </c>
       <c r="D122" s="30" t="s">
@@ -35278,7 +35343,7 @@
       <c r="F122" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G122" s="82">
+      <c r="G122" s="81">
         <v>0</v>
       </c>
       <c r="H122" s="30">
@@ -35493,10 +35558,10 @@
       <c r="A123" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="B123" s="58" t="s">
+      <c r="B123" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C123" s="58" t="s">
+      <c r="C123" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D123" s="33"/>
@@ -35504,7 +35569,7 @@
       <c r="F123" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G123" s="83">
+      <c r="G123" s="82">
         <v>1.0462962962962964E-2</v>
       </c>
       <c r="H123" s="33">
@@ -35719,10 +35784,10 @@
       <c r="A124" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="B124" s="57" t="s">
+      <c r="B124" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C124" s="57" t="s">
+      <c r="C124" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D124" s="30"/>
@@ -35730,7 +35795,7 @@
       <c r="F124" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G124" s="82">
+      <c r="G124" s="81">
         <v>5.4166666666666669E-3</v>
       </c>
       <c r="H124" s="30">
@@ -35945,10 +36010,10 @@
       <c r="A125" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="B125" s="58" t="s">
+      <c r="B125" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C125" s="58" t="s">
+      <c r="C125" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D125" s="33"/>
@@ -35956,7 +36021,7 @@
       <c r="F125" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G125" s="83">
+      <c r="G125" s="82">
         <v>5.4861111111111117E-3</v>
       </c>
       <c r="H125" s="33">
@@ -36167,14 +36232,14 @@
         <v>878</v>
       </c>
     </row>
-    <row r="126" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="B126" s="57" t="s">
+      <c r="B126" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C126" s="57" t="s">
+      <c r="C126" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D126" s="30"/>
@@ -36182,7 +36247,7 @@
       <c r="F126" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G126" s="82">
+      <c r="G126" s="81">
         <v>1.0104166666666668E-2</v>
       </c>
       <c r="H126" s="30">
@@ -36397,10 +36462,10 @@
       <c r="A127" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="B127" s="58" t="s">
+      <c r="B127" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C127" s="58" t="s">
+      <c r="C127" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D127" s="33"/>
@@ -36408,7 +36473,7 @@
       <c r="F127" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G127" s="83">
+      <c r="G127" s="82">
         <v>5.5902777777777782E-3</v>
       </c>
       <c r="H127" s="33">
@@ -36619,14 +36684,14 @@
         <v>881</v>
       </c>
     </row>
-    <row r="128" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:83" ht="21" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="B128" s="57" t="s">
+      <c r="B128" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C128" s="57" t="s">
+      <c r="C128" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D128" s="30"/>
@@ -36634,7 +36699,7 @@
       <c r="F128" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G128" s="82">
+      <c r="G128" s="81">
         <v>4.7222222222222223E-3</v>
       </c>
       <c r="H128" s="30">
@@ -36845,14 +36910,14 @@
         <v>884</v>
       </c>
     </row>
-    <row r="129" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B129" s="58" t="s">
+      <c r="B129" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C129" s="58" t="s">
+      <c r="C129" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D129" s="33"/>
@@ -36860,7 +36925,7 @@
       <c r="F129" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G129" s="83">
+      <c r="G129" s="82">
         <v>6.9791666666666674E-3</v>
       </c>
       <c r="H129" s="33">
@@ -37071,14 +37136,14 @@
         <v>887</v>
       </c>
     </row>
-    <row r="130" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B130" s="57" t="s">
+      <c r="B130" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C130" s="57" t="s">
+      <c r="C130" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D130" s="30"/>
@@ -37086,7 +37151,7 @@
       <c r="F130" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G130" s="82">
+      <c r="G130" s="81">
         <v>4.1331018518518517E-2</v>
       </c>
       <c r="H130" s="30">
@@ -37301,10 +37366,10 @@
       <c r="A131" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="B131" s="58" t="s">
+      <c r="B131" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C131" s="58" t="s">
+      <c r="C131" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D131" s="33"/>
@@ -37312,7 +37377,7 @@
       <c r="F131" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G131" s="83">
+      <c r="G131" s="82">
         <v>9.2824074074074076E-3</v>
       </c>
       <c r="H131" s="33">
@@ -37527,10 +37592,10 @@
       <c r="A132" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="B132" s="57" t="s">
+      <c r="B132" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C132" s="57" t="s">
+      <c r="C132" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D132" s="30"/>
@@ -37538,7 +37603,7 @@
       <c r="F132" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G132" s="82">
+      <c r="G132" s="81">
         <v>1.306712962962963E-2</v>
       </c>
       <c r="H132" s="30">
@@ -37753,10 +37818,10 @@
       <c r="A133" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="B133" s="58" t="s">
+      <c r="B133" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C133" s="58" t="s">
+      <c r="C133" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D133" s="33"/>
@@ -37764,7 +37829,7 @@
       <c r="F133" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G133" s="83">
+      <c r="G133" s="82">
         <v>5.6712962962962958E-3</v>
       </c>
       <c r="H133" s="33">
@@ -37979,10 +38044,10 @@
       <c r="A134" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="B134" s="57" t="s">
+      <c r="B134" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C134" s="57" t="s">
+      <c r="C134" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D134" s="30"/>
@@ -37990,7 +38055,7 @@
       <c r="F134" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G134" s="82">
+      <c r="G134" s="81">
         <v>5.6944444444444438E-3</v>
       </c>
       <c r="H134" s="30">
@@ -38201,14 +38266,14 @@
         <v>896</v>
       </c>
     </row>
-    <row r="135" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="B135" s="58" t="s">
+      <c r="B135" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C135" s="58" t="s">
+      <c r="C135" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D135" s="33"/>
@@ -38216,7 +38281,7 @@
       <c r="F135" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G135" s="83">
+      <c r="G135" s="82">
         <v>9.7916666666666655E-3</v>
       </c>
       <c r="H135" s="33">
@@ -38429,14 +38494,14 @@
         <v>740</v>
       </c>
     </row>
-    <row r="136" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="B136" s="57" t="s">
+      <c r="B136" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C136" s="57" t="s">
+      <c r="C136" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D136" s="30"/>
@@ -38444,7 +38509,7 @@
       <c r="F136" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G136" s="82">
+      <c r="G136" s="81">
         <v>6.2499999999999995E-3</v>
       </c>
       <c r="H136" s="30">
@@ -38655,14 +38720,14 @@
         <v>899</v>
       </c>
     </row>
-    <row r="137" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:83" ht="21" x14ac:dyDescent="0.25">
       <c r="A137" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="B137" s="58" t="s">
+      <c r="B137" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C137" s="58" t="s">
+      <c r="C137" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D137" s="33"/>
@@ -38670,7 +38735,7 @@
       <c r="F137" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G137" s="83">
+      <c r="G137" s="82">
         <v>5.4166666666666669E-3</v>
       </c>
       <c r="H137" s="33">
@@ -38881,14 +38946,14 @@
         <v>902</v>
       </c>
     </row>
-    <row r="138" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="B138" s="57" t="s">
+      <c r="B138" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C138" s="57" t="s">
+      <c r="C138" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D138" s="30"/>
@@ -38896,7 +38961,7 @@
       <c r="F138" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G138" s="82">
+      <c r="G138" s="81">
         <v>6.3888888888888884E-3</v>
       </c>
       <c r="H138" s="30">
@@ -39107,14 +39172,14 @@
         <v>905</v>
       </c>
     </row>
-    <row r="139" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="B139" s="58" t="s">
+      <c r="B139" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C139" s="58" t="s">
+      <c r="C139" s="57" t="s">
         <v>148</v>
       </c>
       <c r="D139" s="33"/>
@@ -39122,7 +39187,7 @@
       <c r="F139" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G139" s="83">
+      <c r="G139" s="82">
         <v>1.4016203703703704E-2</v>
       </c>
       <c r="H139" s="33">
@@ -39337,10 +39402,10 @@
       <c r="A140" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="B140" s="57" t="s">
+      <c r="B140" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C140" s="57" t="s">
+      <c r="C140" s="56" t="s">
         <v>148</v>
       </c>
       <c r="D140" s="30"/>
@@ -39348,7 +39413,7 @@
       <c r="F140" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G140" s="82">
+      <c r="G140" s="81">
         <v>9.2592592592592605E-3</v>
       </c>
       <c r="H140" s="30">
@@ -39559,7 +39624,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="141" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:83" ht="21" x14ac:dyDescent="0.25">
       <c r="V141" s="33" t="s">
         <v>570</v>
       </c>
@@ -39733,10 +39798,10 @@
       <c r="A142" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B142" s="57" t="s">
+      <c r="B142" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="C142" s="57" t="s">
+      <c r="C142" s="56" t="s">
         <v>42</v>
       </c>
       <c r="D142" s="30"/>
@@ -39744,7 +39809,7 @@
       <c r="F142" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G142" s="82">
+      <c r="G142" s="81">
         <v>4.1331018518518517E-2</v>
       </c>
       <c r="H142" s="30">
@@ -39955,14 +40020,14 @@
         <v>911</v>
       </c>
     </row>
-    <row r="143" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:83" ht="21" x14ac:dyDescent="0.25">
       <c r="A143" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B143" s="58" t="s">
+      <c r="B143" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="C143" s="58" t="s">
+      <c r="C143" s="57" t="s">
         <v>47</v>
       </c>
       <c r="D143" s="33"/>
@@ -39970,7 +40035,7 @@
       <c r="F143" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G143" s="83">
+      <c r="G143" s="82">
         <v>1.59375E-2</v>
       </c>
       <c r="H143" s="33">
@@ -40185,10 +40250,10 @@
       <c r="A144" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B144" s="57" t="s">
+      <c r="B144" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="C144" s="59" t="s">
+      <c r="C144" s="58" t="s">
         <v>27</v>
       </c>
       <c r="D144" s="30" t="s">
@@ -40198,7 +40263,7 @@
       <c r="F144" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G144" s="82">
+      <c r="G144" s="81">
         <v>4.6990740740740743E-3</v>
       </c>
       <c r="H144" s="30">
@@ -40409,14 +40474,14 @@
         <v>761</v>
       </c>
     </row>
-    <row r="145" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:83" ht="21" x14ac:dyDescent="0.25">
       <c r="A145" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B145" s="58" t="s">
+      <c r="B145" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="C145" s="58" t="s">
+      <c r="C145" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D145" s="33"/>
@@ -40424,7 +40489,7 @@
       <c r="F145" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G145" s="83">
+      <c r="G145" s="82">
         <v>4.1331018518518517E-2</v>
       </c>
       <c r="H145" s="33">
@@ -40635,14 +40700,14 @@
         <v>917</v>
       </c>
     </row>
-    <row r="146" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:83" ht="21" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B146" s="57" t="s">
+      <c r="B146" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="C146" s="57" t="s">
+      <c r="C146" s="56" t="s">
         <v>42</v>
       </c>
       <c r="D146" s="30"/>
@@ -40650,7 +40715,7 @@
       <c r="F146" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G146" s="82">
+      <c r="G146" s="81">
         <v>4.1331018518518517E-2</v>
       </c>
       <c r="H146" s="30">
@@ -40865,10 +40930,10 @@
       <c r="A147" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B147" s="58" t="s">
+      <c r="B147" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="C147" s="58" t="s">
+      <c r="C147" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D147" s="33"/>
@@ -40876,7 +40941,7 @@
       <c r="F147" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G147" s="83">
+      <c r="G147" s="82">
         <v>7.6504629629629631E-3</v>
       </c>
       <c r="H147" s="33">
@@ -41091,10 +41156,10 @@
       <c r="A148" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B148" s="57" t="s">
+      <c r="B148" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="C148" s="57" t="s">
+      <c r="C148" s="56" t="s">
         <v>42</v>
       </c>
       <c r="D148" s="30"/>
@@ -41102,7 +41167,7 @@
       <c r="F148" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G148" s="82">
+      <c r="G148" s="81">
         <v>4.1331018518518517E-2</v>
       </c>
       <c r="H148" s="30">
@@ -41317,10 +41382,10 @@
       <c r="A149" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="B149" s="58" t="s">
+      <c r="B149" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="C149" s="58" t="s">
+      <c r="C149" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D149" s="33"/>
@@ -41328,7 +41393,7 @@
       <c r="F149" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G149" s="83">
+      <c r="G149" s="82">
         <v>4.1331018518518517E-2</v>
       </c>
       <c r="H149" s="33">
@@ -41373,8 +41438,8 @@
     </row>
     <row r="152" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A152" s="39"/>
-      <c r="B152" s="47"/>
-      <c r="C152" s="47"/>
+      <c r="B152" s="46"/>
+      <c r="C152" s="46"/>
       <c r="D152" s="39"/>
       <c r="E152" s="39"/>
       <c r="F152" s="39"/>
@@ -41394,8 +41459,8 @@
     </row>
     <row r="153" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A153" s="39"/>
-      <c r="B153" s="47"/>
-      <c r="C153" s="47"/>
+      <c r="B153" s="46"/>
+      <c r="C153" s="46"/>
       <c r="D153" s="39"/>
       <c r="E153" s="39"/>
       <c r="F153" s="39"/>
@@ -41415,8 +41480,8 @@
     </row>
     <row r="154" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A154" s="39"/>
-      <c r="B154" s="47"/>
-      <c r="C154" s="47"/>
+      <c r="B154" s="46"/>
+      <c r="C154" s="46"/>
       <c r="D154" s="39"/>
       <c r="E154" s="39"/>
       <c r="F154" s="39"/>
@@ -41436,8 +41501,8 @@
     </row>
     <row r="155" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A155" s="39"/>
-      <c r="B155" s="47"/>
-      <c r="C155" s="47"/>
+      <c r="B155" s="46"/>
+      <c r="C155" s="46"/>
       <c r="D155" s="39"/>
       <c r="E155" s="39"/>
       <c r="F155" s="39"/>
@@ -41457,8 +41522,8 @@
     </row>
     <row r="156" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A156" s="39"/>
-      <c r="B156" s="47"/>
-      <c r="C156" s="47"/>
+      <c r="B156" s="46"/>
+      <c r="C156" s="46"/>
       <c r="D156" s="39"/>
       <c r="E156" s="39"/>
       <c r="F156" s="39"/>
@@ -41478,8 +41543,8 @@
     </row>
     <row r="157" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A157" s="39"/>
-      <c r="B157" s="47"/>
-      <c r="C157" s="47"/>
+      <c r="B157" s="46"/>
+      <c r="C157" s="46"/>
       <c r="D157" s="39"/>
       <c r="E157" s="39"/>
       <c r="F157" s="39"/>
@@ -41499,8 +41564,8 @@
     </row>
     <row r="158" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A158" s="39"/>
-      <c r="B158" s="47"/>
-      <c r="C158" s="47"/>
+      <c r="B158" s="46"/>
+      <c r="C158" s="46"/>
       <c r="D158" s="39"/>
       <c r="E158" s="39"/>
       <c r="F158" s="39"/>
@@ -41520,8 +41585,8 @@
     </row>
     <row r="159" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A159" s="39"/>
-      <c r="B159" s="47"/>
-      <c r="C159" s="47"/>
+      <c r="B159" s="46"/>
+      <c r="C159" s="46"/>
       <c r="D159" s="39"/>
       <c r="E159" s="39"/>
       <c r="F159" s="39"/>
@@ -41541,30 +41606,30 @@
     </row>
     <row r="160" spans="1:83" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="39"/>
-      <c r="B160" s="48"/>
-      <c r="C160" s="48" t="s">
+      <c r="B160" s="47"/>
+      <c r="C160" s="47" t="s">
         <v>360</v>
       </c>
-      <c r="D160" s="49" t="s">
+      <c r="D160" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="E160" s="49"/>
-      <c r="F160" s="49" t="s">
+      <c r="E160" s="48"/>
+      <c r="F160" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="G160" s="50" t="s">
+      <c r="G160" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="H160" s="49" t="s">
+      <c r="H160" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="I160" s="49" t="s">
+      <c r="I160" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="J160" s="49" t="s">
+      <c r="J160" s="48" t="s">
         <v>366</v>
       </c>
-      <c r="K160" s="49" t="s">
+      <c r="K160" s="48" t="s">
         <v>367</v>
       </c>
       <c r="L160" s="39"/>
@@ -41579,30 +41644,30 @@
     </row>
     <row r="161" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="39"/>
-      <c r="B161" s="48"/>
-      <c r="C161" s="63">
+      <c r="B161" s="47"/>
+      <c r="C161" s="62">
         <v>19551.674999999999</v>
       </c>
-      <c r="D161" s="51">
+      <c r="D161" s="50">
         <v>26765.674999999999</v>
       </c>
-      <c r="E161" s="49"/>
-      <c r="F161" s="51">
+      <c r="E161" s="48"/>
+      <c r="F161" s="50">
         <v>29369.529411764706</v>
       </c>
-      <c r="G161" s="51">
+      <c r="G161" s="50">
         <v>24069.583333333332</v>
       </c>
-      <c r="H161" s="51">
+      <c r="H161" s="50">
         <v>7346.1851851851852</v>
       </c>
-      <c r="I161" s="51">
+      <c r="I161" s="50">
         <v>33517.76470588235</v>
       </c>
-      <c r="J161" s="51">
+      <c r="J161" s="50">
         <v>26275.777777777777</v>
       </c>
-      <c r="K161" s="51">
+      <c r="K161" s="50">
         <v>23167.555555555555</v>
       </c>
       <c r="L161" s="39"/>
@@ -41617,25 +41682,25 @@
     </row>
     <row r="162" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="39"/>
-      <c r="B162" s="49" t="s">
+      <c r="B162" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="C162" s="62">
+      <c r="C162" s="61">
         <v>-36.897094494461477</v>
       </c>
-      <c r="D162" s="51"/>
-      <c r="F162" s="61">
+      <c r="D162" s="50"/>
+      <c r="F162" s="60">
         <v>-14.124282469626371</v>
       </c>
-      <c r="G162" s="61">
+      <c r="G162" s="60">
         <v>-9.1659021009688377</v>
       </c>
-      <c r="H162" s="61">
+      <c r="H162" s="60">
         <v>-215.36852082461544</v>
       </c>
-      <c r="I162" s="51"/>
-      <c r="J162" s="51"/>
-      <c r="K162" s="51"/>
+      <c r="I162" s="50"/>
+      <c r="J162" s="50"/>
+      <c r="K162" s="50"/>
       <c r="L162" s="39"/>
       <c r="M162" s="39"/>
       <c r="N162" s="39"/>
@@ -41648,32 +41713,32 @@
     </row>
     <row r="163" spans="1:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A163" s="39"/>
-      <c r="B163" s="48" t="s">
+      <c r="B163" s="47" t="s">
         <v>368</v>
       </c>
-      <c r="C163" s="63">
+      <c r="C163" s="62">
         <v>27222.190431022002</v>
       </c>
-      <c r="D163" s="51">
+      <c r="D163" s="50">
         <v>18616.993045497144</v>
       </c>
-      <c r="E163" s="49"/>
-      <c r="F163" s="51">
+      <c r="E163" s="48"/>
+      <c r="F163" s="50">
         <v>17778.12334455808</v>
       </c>
-      <c r="G163" s="51">
+      <c r="G163" s="50">
         <v>36435.94911803375</v>
       </c>
-      <c r="H163" s="51">
+      <c r="H163" s="50">
         <v>4651.8893894451503</v>
       </c>
-      <c r="I163" s="51">
+      <c r="I163" s="50">
         <v>19071.083287998554</v>
       </c>
-      <c r="J163" s="51">
+      <c r="J163" s="50">
         <v>19881.254247421548</v>
       </c>
-      <c r="K163" s="51">
+      <c r="K163" s="50">
         <v>15537.28468658854</v>
       </c>
       <c r="L163" s="39"/>
@@ -41686,26 +41751,26 @@
       <c r="S163" s="39"/>
       <c r="T163" s="39"/>
     </row>
-    <row r="164" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="39"/>
-      <c r="B164" s="48"/>
-      <c r="C164" s="48"/>
-      <c r="D164" s="49"/>
-      <c r="E164" s="49" t="s">
+      <c r="B164" s="47"/>
+      <c r="C164" s="47"/>
+      <c r="D164" s="48"/>
+      <c r="E164" s="48" t="s">
         <v>369</v>
       </c>
-      <c r="F164" s="49">
+      <c r="F164" s="48">
         <v>17</v>
       </c>
       <c r="G164">
         <v>36</v>
       </c>
-      <c r="H164" s="49">
+      <c r="H164" s="48">
         <v>27</v>
       </c>
-      <c r="I164" s="49"/>
-      <c r="J164" s="49"/>
-      <c r="K164" s="49"/>
+      <c r="I164" s="48"/>
+      <c r="J164" s="48"/>
+      <c r="K164" s="48"/>
       <c r="L164" s="39"/>
       <c r="M164" s="39"/>
       <c r="N164" s="39"/>
@@ -41718,25 +41783,27 @@
     </row>
     <row r="165" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="39"/>
-      <c r="B165" s="48"/>
-      <c r="C165" s="48"/>
-      <c r="D165" s="49"/>
-      <c r="E165" s="49" t="s">
+      <c r="B165" s="47"/>
+      <c r="C165" s="47"/>
+      <c r="D165" s="48"/>
+      <c r="E165" s="48" t="s">
         <v>370</v>
       </c>
-      <c r="F165" s="49">
+      <c r="F165" s="48">
         <v>1</v>
       </c>
       <c r="G165">
         <v>6</v>
       </c>
-      <c r="H165" s="49">
+      <c r="H165" s="48">
         <v>1</v>
       </c>
-      <c r="I165" s="49"/>
-      <c r="J165" s="49"/>
-      <c r="K165" s="49"/>
-      <c r="L165" s="39"/>
+      <c r="I165" s="48"/>
+      <c r="K165" s="48"/>
+      <c r="L165" s="109">
+        <f>SUM(I183-I186)/I183*100</f>
+        <v>100</v>
+      </c>
       <c r="M165" s="39"/>
       <c r="N165" s="39"/>
       <c r="O165" s="39"/>
@@ -41748,34 +41815,36 @@
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="39"/>
-      <c r="B166" s="47" t="s">
+      <c r="B166" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="C166" s="47"/>
+      <c r="C166" s="46"/>
       <c r="D166" s="39"/>
-      <c r="E166" s="84">
+      <c r="E166" s="83">
         <f>SUM(G68:G149)/80</f>
         <v>1.1391493055555552E-2</v>
       </c>
-      <c r="F166" s="84">
+      <c r="F166" s="83">
         <f>SUM(G143,G140,G139,G132,G131,G123,G122,G114,G113,G105,G104,G97,G96,G89,G88,G81,G80,G74)/17</f>
         <v>1.16489651416122E-2</v>
       </c>
-      <c r="G166" s="84">
+      <c r="G166" s="83">
         <f>SUM(G149,G148,G147,G146,G145,G142,G138,G137,G136,G130,G129,G128,G127,G121,G120,G119,G118,G112,G111,G110,G109,G103,G102,G101,G95,G94,G93,G87,G86,G85,G79,G78,G77,G73,G72,G71)/36</f>
         <v>1.3666730967078194E-2</v>
       </c>
-      <c r="H166" s="84">
+      <c r="H166" s="83">
         <f>SUM(G144,G135,G134,G133,G126,G124,G125,G117,G116,G115,G108,G107,G106,G100,G99,G98,G92,G91,G90,G84,G82,G83,G76,G75,G70,G69,G68)/27</f>
         <v>8.1957304526748959E-3</v>
       </c>
-      <c r="I166" s="84">
+      <c r="I166" s="83">
         <f>SUM(F166:H166)/3</f>
         <v>1.1170475520455097E-2</v>
       </c>
-      <c r="J166" s="39"/>
       <c r="K166" s="39"/>
-      <c r="L166" s="39"/>
+      <c r="L166" s="109" t="e">
+        <f>SUM(I186-I183)/I186*100</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M166" s="39"/>
       <c r="N166" s="39"/>
       <c r="O166" s="39"/>
@@ -41787,8 +41856,8 @@
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="39"/>
-      <c r="B167" s="47"/>
-      <c r="C167" s="47"/>
+      <c r="B167" s="46"/>
+      <c r="C167" s="46"/>
       <c r="D167" s="39"/>
       <c r="E167" s="39"/>
       <c r="F167" s="39"/>
@@ -41809,8 +41878,8 @@
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="39"/>
-      <c r="B168" s="47"/>
-      <c r="C168" s="47"/>
+      <c r="B168" s="46"/>
+      <c r="C168" s="46"/>
       <c r="D168" s="39"/>
       <c r="E168" s="39"/>
       <c r="F168" s="39"/>
@@ -41831,8 +41900,8 @@
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="39"/>
-      <c r="B169" s="47"/>
-      <c r="C169" s="47"/>
+      <c r="B169" s="46"/>
+      <c r="C169" s="46"/>
       <c r="D169" s="39"/>
       <c r="E169" s="39"/>
       <c r="F169" s="39"/>
@@ -41853,35 +41922,35 @@
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="39"/>
-      <c r="B170" s="47"/>
-      <c r="C170" s="65" t="s">
+      <c r="B170" s="46"/>
+      <c r="C170" s="64" t="s">
         <v>372</v>
       </c>
-      <c r="D170" s="81" t="s">
+      <c r="D170" s="80" t="s">
         <v>373</v>
       </c>
-      <c r="E170" s="91" t="s">
+      <c r="E170" s="90" t="s">
         <v>370</v>
       </c>
-      <c r="F170" s="72" t="s">
+      <c r="F170" s="71" t="s">
         <v>380</v>
       </c>
-      <c r="G170" s="81" t="s">
+      <c r="G170" s="80" t="s">
         <v>374</v>
       </c>
-      <c r="H170" s="85" t="s">
+      <c r="H170" s="84" t="s">
         <v>377</v>
       </c>
-      <c r="I170" s="81" t="s">
+      <c r="I170" s="80" t="s">
         <v>379</v>
       </c>
-      <c r="J170" s="86" t="s">
+      <c r="J170" s="85" t="s">
         <v>375</v>
       </c>
-      <c r="K170" s="81" t="s">
+      <c r="K170" s="80" t="s">
         <v>377</v>
       </c>
-      <c r="L170" s="81" t="s">
+      <c r="L170" s="80" t="s">
         <v>376</v>
       </c>
       <c r="M170" s="39"/>
@@ -41894,306 +41963,497 @@
       <c r="T170" s="39"/>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C171" s="68" t="s">
+      <c r="C171" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="D171" s="73">
+      <c r="D171" s="72">
         <v>17</v>
       </c>
-      <c r="E171" s="74">
+      <c r="E171" s="73">
         <v>1</v>
       </c>
-      <c r="F171" s="69">
+      <c r="F171" s="68">
         <f>SUM(E171/D171)</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="G171" s="73">
+      <c r="G171" s="72">
         <v>29370</v>
       </c>
-      <c r="H171" s="74">
+      <c r="H171" s="73">
         <v>17778</v>
       </c>
-      <c r="I171" s="87">
+      <c r="I171" s="86">
         <v>0.69861111111111107</v>
       </c>
-      <c r="J171" s="73">
+      <c r="J171" s="72">
         <v>33518</v>
       </c>
-      <c r="K171" s="74">
+      <c r="K171" s="73">
         <v>19071</v>
       </c>
-      <c r="L171" s="75">
+      <c r="L171" s="74">
         <v>-0.14119999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C172" s="68" t="s">
+      <c r="C172" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="D172" s="73">
+      <c r="D172" s="72">
         <v>36</v>
       </c>
-      <c r="E172" s="74">
+      <c r="E172" s="73">
         <v>6</v>
       </c>
-      <c r="F172" s="69">
+      <c r="F172" s="68">
         <f t="shared" ref="F172:F174" si="1">SUM(E172/D172)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G172" s="73">
+      <c r="G172" s="72">
         <v>24070</v>
       </c>
-      <c r="H172" s="74">
+      <c r="H172" s="73">
         <v>36436</v>
       </c>
-      <c r="I172" s="88">
+      <c r="I172" s="87">
         <v>0.82013888888888886</v>
       </c>
-      <c r="J172" s="73">
+      <c r="J172" s="72">
         <v>26276</v>
       </c>
-      <c r="K172" s="74">
+      <c r="K172" s="73">
         <v>19881</v>
       </c>
-      <c r="L172" s="75">
+      <c r="L172" s="74">
         <v>-9.1700000000000004E-2</v>
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C173" s="70" t="s">
+      <c r="C173" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="D173" s="76">
+      <c r="D173" s="75">
         <v>27</v>
       </c>
-      <c r="E173" s="77">
+      <c r="E173" s="76">
         <v>1</v>
       </c>
-      <c r="F173" s="69">
+      <c r="F173" s="68">
         <f t="shared" si="1"/>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="G173" s="76">
+      <c r="G173" s="75">
         <v>7346</v>
       </c>
-      <c r="H173" s="77">
+      <c r="H173" s="76">
         <v>4652</v>
       </c>
-      <c r="I173" s="89">
+      <c r="I173" s="88">
         <v>0.4916666666666667</v>
       </c>
-      <c r="J173" s="76">
+      <c r="J173" s="75">
         <v>23168</v>
       </c>
-      <c r="K173" s="77">
+      <c r="K173" s="76">
         <v>15537</v>
       </c>
-      <c r="L173" s="78">
+      <c r="L173" s="77">
         <v>-2.1537000000000002</v>
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C174" s="66" t="s">
+      <c r="C174" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="D174" s="79">
+      <c r="D174" s="78">
         <v>80</v>
       </c>
-      <c r="E174" s="92">
+      <c r="E174" s="91">
         <v>8</v>
       </c>
-      <c r="F174" s="93">
+      <c r="F174" s="92">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="G174" s="79">
+      <c r="G174" s="78">
         <v>19552</v>
       </c>
-      <c r="H174" s="79">
+      <c r="H174" s="78">
         <v>27222</v>
       </c>
-      <c r="I174" s="90">
+      <c r="I174" s="89">
         <v>0.68333333333333324</v>
       </c>
-      <c r="J174" s="79">
+      <c r="J174" s="78">
         <v>26766</v>
       </c>
-      <c r="K174" s="79">
+      <c r="K174" s="78">
         <v>18617</v>
       </c>
-      <c r="L174" s="80">
+      <c r="L174" s="79">
         <v>-0.36899999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C176" s="65" t="s">
+      <c r="C176" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="D176" s="81" t="s">
+      <c r="D176" s="80" t="s">
         <v>373</v>
       </c>
-      <c r="E176" s="91" t="s">
+      <c r="E176" s="90" t="s">
         <v>370</v>
       </c>
-      <c r="F176" s="72" t="s">
+      <c r="F176" s="71" t="s">
         <v>380</v>
       </c>
-      <c r="G176" s="81" t="s">
+      <c r="G176" s="80" t="s">
         <v>382</v>
       </c>
-      <c r="H176" s="85" t="s">
+      <c r="H176" s="84" t="s">
         <v>377</v>
       </c>
-      <c r="I176" s="81" t="s">
+      <c r="I176" s="80" t="s">
         <v>379</v>
       </c>
-      <c r="J176" s="100"/>
-      <c r="K176" s="101"/>
-      <c r="L176" s="101"/>
+      <c r="J176" s="99"/>
+      <c r="K176" s="100"/>
+      <c r="L176" s="100"/>
     </row>
-    <row r="177" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C177" s="68" t="s">
+    <row r="177" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C177" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="D177" s="73">
+      <c r="D177" s="72">
         <v>80</v>
       </c>
-      <c r="E177" s="74">
+      <c r="E177" s="73">
         <v>73</v>
       </c>
-      <c r="F177" s="69">
+      <c r="F177" s="68">
         <f>SUM(E177/D177)</f>
         <v>0.91249999999999998</v>
       </c>
-      <c r="G177" s="94">
+      <c r="G177" s="93">
         <f>SUM(AC148,AC147,AC146,AC145,AC144,AC143,AC142,AC141,AC140,AC139,AC138,AC137,AC136,AC135,AC134,AC133,AC132,AC131,AC130,AC129,AC126,AC125,AC124,AC123,AC122,AC121,AC120,AC117,AC116,AC115,AC114,AC113,AC112,AC111,AC110,AC108,AC107,AC106,AC105,AC104,AC103,AC102,AC99,AC98,AC97,AC96,AC95,AC94,AC93,AC92,AC91,AC90,AC89,AC88,AC87,AC86,AC85,AC84,AC83,AC82,AC81,AC80,AC79,AC78,AC77,AC76,AC75,AC73,AC72,AC71,AC70,AC69,AC68,AD128)/80</f>
         <v>7187.7375000000002</v>
       </c>
-      <c r="H177" s="97">
+      <c r="H177" s="96">
         <f>_xlfn.STDEV.P(AC148,AC147,AC146,AC145,AC144,AC143,AC142,AC141,AC140,AC139,AC138,AC137,AC136,AC135,AC134,AC133,AC132,AC131,AC130,AC129,AC126,AC125,AC124,AC123,AC122,AC121,AC120,AC117,AC116,AC115,AC114,AC113,AC112,AC111,AC110,AC108,AC107,AC106,AC105,AC104,AC103,AC102,AC99,AC98,AC97,AC96,AC95,AC94,AC93,AC92,AC91,AC90,AC89,AC88,AC87,AC86,AC85,AC84,AC83,AC82,AC81,AC80,AC79,AC78,AC77,AC76,AC75,AC73,AC72,AC71,AC70,AC69,AC68,AD128)</f>
         <v>6672.3789412589585</v>
       </c>
-      <c r="I177" s="95">
+      <c r="I177" s="94">
         <v>0.2673611111111111</v>
       </c>
-      <c r="J177" s="102"/>
-      <c r="K177" s="102"/>
-      <c r="L177" s="103"/>
+      <c r="J177" s="101"/>
+      <c r="K177" s="101"/>
+      <c r="L177" s="102"/>
     </row>
-    <row r="178" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C178" s="68" t="s">
+    <row r="178" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C178" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D178" s="73">
+      <c r="D178" s="72">
         <v>80</v>
       </c>
-      <c r="E178" s="74">
+      <c r="E178" s="73">
         <v>69</v>
       </c>
-      <c r="F178" s="69">
-        <f t="shared" ref="F178:F181" si="2">SUM(E178/D178)</f>
+      <c r="F178" s="68">
+        <f>SUM(E178/D178)</f>
         <v>0.86250000000000004</v>
       </c>
-      <c r="G178" s="94">
+      <c r="G178" s="93">
         <f>SUM(AX68,AX69,AX70,AX71,AX72,AX74,AX75,AX77,AX78,AX79,AX81,AX80,AX83,AX84,AX86,AX87,AX88,AX89,AX90,AX92,AX93,AX95,AX96,AX97,AX98,AX99,AX100,AX101,AX102,AX103,AX104,AX105,AX107,AX108,AX109,AX110,AX111,AX112,AX113,AX114,AX115,AX116,AX117,AX118,AX119,AX120,AX121,AX122,AX123,AX124,AX125,AX126,AX127,AX128,AX129,AX130,AX131,AX132,AX133,AX134,AX135,AX136,AX137,AX138,AX140,AX141,AX143,AX144,AX145,AX146,AX147,AY148)/80</f>
         <v>36388.224999999999</v>
       </c>
-      <c r="H178" s="97">
+      <c r="H178" s="96">
         <f>_xlfn.STDEV.P(AX68,AX69,AX70,AX71,AX72,AX74,AX75,AX77,AX78,AX79,AX81,AX80,AX83,AX84,AX86,AX87,AX88,AX89,AX90,AX92,AX93,AX95,AX96,AX97,AX98,AX99,AX100,AX101,AX102,AX103,AX104,AX105,AX107,AX108,AX109,AX110,AX111,AX112,AX113,AX114,AX115,AX116,AX117,AX118,AX119,AX120,AX121,AX122,AX123,AX124,AX125,AX126,AX127,AX128,AX129,AX130,AX131,AX132,AX133,AX134,AX135,AX136,AX137,AX138,AX140,AX141,AX143,AX144,AX145,AX146,AX147,AY148)</f>
         <v>35563.19490877611</v>
       </c>
-      <c r="I178" s="96">
+      <c r="I178" s="95">
         <v>0.55069444444444449</v>
       </c>
-      <c r="J178" s="102"/>
-      <c r="K178" s="102"/>
-      <c r="L178" s="103"/>
+      <c r="J178" s="101"/>
+      <c r="K178" s="101"/>
+      <c r="L178" s="110">
+        <f>SUM(6.25-15.35)/6.25*100</f>
+        <v>-145.6</v>
+      </c>
+      <c r="M178" s="139">
+        <f>SUM(G183-I183)/G183*100</f>
+        <v>-7.8050429525930678</v>
+      </c>
     </row>
-    <row r="179" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C179" s="68" t="s">
+    <row r="179" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C179" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D179" s="73">
+      <c r="D179" s="72">
         <v>80</v>
       </c>
-      <c r="E179" s="74">
+      <c r="E179" s="73">
         <v>48</v>
       </c>
-      <c r="F179" s="69">
-        <f t="shared" si="2"/>
+      <c r="F179" s="68">
+        <f>SUM(E179/D179)</f>
         <v>0.6</v>
       </c>
-      <c r="G179" s="94">
+      <c r="G179" s="93">
         <f>SUM(BS68,BS69,BS71,BS73,BS74,BS75,BS77,BS78,BS80,BS83,BS84,BS86,BS87,BS89,BS91,BS92,BS95,BS96,BS97,BS100,BS101,BS102,BS104,BS105,BS107,BS110,BS113,BS114,BS115,BS116,BS118,BS119,BS122,BS123,BS124,BS125,BS127,BS128,BS131,BS132,BS133,BS134,BS137,BS140,BS141,BS143,BS145,BS146,BT70,BT72,BT76,BT79,BT81,BT82,BT85,BT88,BT90,BT93,BT94,BT98,BT99,BT103,BT106,BT108,BT109,BT111,BT112,BT117,BT120,BT121,BT126,BT129,BT130,BT135,BT136,BT138,BT139,BT142,BT144,BT147,BT148)/80</f>
         <v>39294.787499999999</v>
       </c>
-      <c r="H179" s="97">
+      <c r="H179" s="96">
         <f>_xlfn.STDEV.P(BS68,BS69,BS71,BS73,BS74,BS75,BS77,BS78,BS80,BS83,BS84,BS86,BS87,BS89,BS91,BS92,BS95,BS96,BS97,BS100,BS101,BS102,BS104,BS105,BS107,BS110,BS113,BS114,BS115,BS116,BS118,BS119,BS122,BS123,BS124,BS125,BS127,BS128,BS131,BS132,BS133,BS134,BS137,BS140,BS141,BS143,BS145,BS146,BT70,BT72,BT76,BT79,BT81,BT82,BT85,BT88,BT90,BT93,BT94,BT98,BT99,BT103,BT106,BT108,BT109,BT111,BT112,BT117,BT120,BT121,BT126,BT129,BT130,BT135,BT136,BT138,BT139,BT142,BT144,BT147,BT148)</f>
         <v>24792.70425092983</v>
       </c>
-      <c r="I179" s="96">
+      <c r="I179" s="95">
         <v>0.6743055555555556</v>
       </c>
-      <c r="J179" s="102"/>
-      <c r="K179" s="102"/>
-      <c r="L179" s="103"/>
+      <c r="J179" s="101"/>
+      <c r="K179" s="101"/>
+      <c r="L179" s="110">
+        <f>SUM(13.13-8.18)/13.13*100</f>
+        <v>37.699923838537707</v>
+      </c>
+      <c r="M179" s="138">
+        <f>SUM(G184-I184)/G184*100</f>
+        <v>-268.56633053069834</v>
+      </c>
     </row>
-    <row r="180" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C180" s="67" t="s">
+    <row r="180" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C180" s="66" t="s">
         <v>381</v>
       </c>
-      <c r="D180" s="64">
+      <c r="D180" s="63">
         <v>80</v>
       </c>
-      <c r="E180" s="64">
+      <c r="E180" s="63">
         <v>8</v>
       </c>
-      <c r="F180" s="71">
-        <f t="shared" si="2"/>
+      <c r="F180" s="70">
+        <f t="shared" ref="F178:F180" si="2">SUM(E180/D180)</f>
         <v>0.1</v>
       </c>
-      <c r="G180" s="98">
+      <c r="G180" s="97">
         <v>19551.674999999999</v>
       </c>
-      <c r="H180" s="104">
+      <c r="H180" s="103">
         <v>27222.190431022002</v>
       </c>
-      <c r="I180" s="99">
+      <c r="I180" s="98">
         <v>0.68333333333333324</v>
       </c>
-      <c r="J180" s="102"/>
-      <c r="K180" s="102"/>
-      <c r="L180" s="102"/>
+      <c r="J180" s="101"/>
+      <c r="K180" s="101"/>
+      <c r="L180" s="110">
+        <f>SUM(16.11-14.18)/16.11*100</f>
+        <v>11.980136561142146</v>
+      </c>
+      <c r="M180" s="138">
+        <f>SUM(G185-I185)/G185*100</f>
+        <v>-224.24780284205204</v>
+      </c>
     </row>
-    <row r="181" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C181" s="105"/>
-      <c r="D181" s="102"/>
-      <c r="E181" s="102"/>
-      <c r="F181" s="106"/>
-      <c r="G181" s="107"/>
-      <c r="H181" s="107"/>
-      <c r="I181" s="108"/>
-      <c r="J181" s="102"/>
-      <c r="K181" s="102"/>
-      <c r="L181" s="103"/>
+    <row r="181" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C181" s="104"/>
+      <c r="D181" s="101"/>
+      <c r="E181" s="101"/>
+      <c r="F181" s="105"/>
+      <c r="G181" s="106"/>
+      <c r="H181" s="106"/>
+      <c r="I181" s="107"/>
+      <c r="J181" s="101"/>
+      <c r="K181" s="101"/>
+      <c r="L181" s="102"/>
     </row>
-    <row r="182" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C182" s="109"/>
-      <c r="D182" s="45"/>
-      <c r="E182" s="45"/>
-      <c r="F182" s="45"/>
-      <c r="G182" s="45"/>
-      <c r="H182" s="45"/>
-      <c r="I182" s="45"/>
-      <c r="J182" s="45"/>
-      <c r="K182" s="45"/>
-      <c r="L182" s="45"/>
+    <row r="182" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C182" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" s="108" t="s">
+        <v>373</v>
+      </c>
+      <c r="E182" s="113" t="s">
+        <v>370</v>
+      </c>
+      <c r="F182" s="114" t="s">
+        <v>380</v>
+      </c>
+      <c r="G182" s="80" t="s">
+        <v>374</v>
+      </c>
+      <c r="H182" s="84" t="s">
+        <v>377</v>
+      </c>
+      <c r="I182" s="108" t="s">
+        <v>375</v>
+      </c>
+      <c r="J182" s="115" t="s">
+        <v>377</v>
+      </c>
+      <c r="K182" s="116" t="s">
+        <v>376</v>
+      </c>
+      <c r="L182" s="108" t="s">
+        <v>924</v>
+      </c>
+      <c r="M182" s="108" t="s">
+        <v>926</v>
+      </c>
+      <c r="N182" s="116" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="183" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C183" s="117" t="s">
+        <v>55</v>
+      </c>
+      <c r="D183" s="118">
+        <v>9</v>
+      </c>
+      <c r="E183" s="118">
+        <v>9</v>
+      </c>
+      <c r="F183" s="121">
+        <f>SUM(E183/D183)</f>
+        <v>1</v>
+      </c>
+      <c r="G183" s="126">
+        <f>SUM(I74,I81,I89,I97,I105,I114,I123,I132,I140)/9</f>
+        <v>22350.222222222223</v>
+      </c>
+      <c r="H183" s="129">
+        <f>_xlfn.STDEV.P(I74,I81,I89,I97,I105,I114,I123,I132,I140)</f>
+        <v>8795.2952041642729</v>
+      </c>
+      <c r="I183" s="123">
+        <f>SUM(AC68,AC77,AC86,AC95,AC104,AC113,AC122,AC131,AC140)/9</f>
+        <v>24094.666666666668</v>
+      </c>
+      <c r="J183" s="123">
+        <f>_xlfn.STDEV.P(AC68,AC77,AC86,AC95,AC104,AC113,AC122,AC131,AC140)</f>
+        <v>6418.5518269743334</v>
+      </c>
+      <c r="K183" s="111">
+        <v>-7.8100000000000003E-2</v>
+      </c>
+      <c r="L183" s="94">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="M183" s="125">
+        <f>SUM(AB68,AB77,AB86,AB95,AB104,AB113,AB122,AB131,AB140,AB140)/9</f>
+        <v>1.0816615226337447E-2</v>
+      </c>
+      <c r="N183" s="111">
+        <v>1.456</v>
+      </c>
+    </row>
+    <row r="184" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C184" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D184" s="119">
+        <v>9</v>
+      </c>
+      <c r="E184" s="119">
+        <v>9</v>
+      </c>
+      <c r="F184" s="122">
+        <v>1</v>
+      </c>
+      <c r="G184" s="126">
+        <f>SUM(I72,I78,I86,I94,I102,I119,I110,I128,I137)/9</f>
+        <v>4109.8888888888887</v>
+      </c>
+      <c r="H184" s="129">
+        <f>_xlfn.STDEV.P(I72,I78,I86,I94,I102,I110,I119,I128,I137)</f>
+        <v>913.9482655483107</v>
+      </c>
+      <c r="I184" s="127">
+        <f>SUM(H72,H78,H86,H94,H102,H110,H119,H128,H137)/9</f>
+        <v>15147.666666666666</v>
+      </c>
+      <c r="J184" s="127">
+        <f>_xlfn.STDEV.P(H72,H78,H86,H94,H102,H110,H119,H128,H137)</f>
+        <v>2253.2477301294089</v>
+      </c>
+      <c r="K184" s="68">
+        <v>-2.6856</v>
+      </c>
+      <c r="L184" s="95">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="M184" s="128">
+        <f>SUM(G137,G128,G119,G110,G102,G94,G86,G78,G72)/9</f>
+        <v>5.7600308641975314E-3</v>
+      </c>
+      <c r="N184" s="68">
+        <v>-0.377</v>
+      </c>
+    </row>
+    <row r="185" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C185" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D185" s="120">
+        <v>9</v>
+      </c>
+      <c r="E185" s="120">
+        <v>9</v>
+      </c>
+      <c r="F185" s="122">
+        <v>1</v>
+      </c>
+      <c r="G185" s="126">
+        <f>SUM(I70,I76,I84,I92,I100,I108,I117,I126,I135)/9</f>
+        <v>10329</v>
+      </c>
+      <c r="H185" s="129">
+        <f>_xlfn.STDEV.P(I70,I76,I84,I92,I100,I108,I117,I126,I135)</f>
+        <v>2050.8928678884122</v>
+      </c>
+      <c r="I185" s="124">
+        <f>SUM(H70,H76,H84,H92,H100,H108,H117,H126,H135)/9</f>
+        <v>33491.555555555555</v>
+      </c>
+      <c r="J185" s="124">
+        <f>_xlfn.STDEV.P(H70,H76,H84,H92,H100,H108,H117,H126,H135)</f>
+        <v>2458.4264213386177</v>
+      </c>
+      <c r="K185" s="70">
+        <v>-2.2423999999999999</v>
+      </c>
+      <c r="L185" s="95">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="M185" s="128">
+        <f>SUM(G70,G76,G84,G92,G100,G108,G117,G126,G135)/9</f>
+        <v>9.9279835390946505E-3</v>
+      </c>
+      <c r="N185" s="68">
+        <v>-0.1198</v>
+      </c>
+    </row>
+    <row r="186" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C186" s="130"/>
+      <c r="D186" s="131"/>
+      <c r="E186" s="131"/>
+      <c r="F186" s="132"/>
+      <c r="G186" s="91"/>
+      <c r="H186" s="91"/>
+      <c r="I186" s="133"/>
+      <c r="J186" s="134"/>
+      <c r="K186" s="132"/>
+      <c r="L186" s="135"/>
+      <c r="M186" s="136"/>
+      <c r="N186" s="137"/>
     </row>
   </sheetData>
-  <autoFilter ref="BL67:CE148" xr:uid="{561DF265-2426-45DC-80C7-1E48F973C268}">
-    <filterColumn colId="2">
+  <autoFilter ref="A67:T140" xr:uid="{9B513DDC-6C9C-43F7-A6B4-DFFF987F6CC7}">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Xelnaga"/>
+        <filter val="Iron"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/DataSets/BotResults(Mine).xlsx
+++ b/DataSets/BotResults(Mine).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\Dissertation_Artefact\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE954211-FFD9-42D0-A8A1-CF3E0A7913AD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1B9073-51C6-479C-AED5-FCE6B51C77F2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{54C24EBF-4E94-473C-9F52-99BEA4E6395E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$67:$T$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$67:$T$148</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AA$25</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AA$26:$AA$35</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$Z$1</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="938">
   <si>
     <t>Round/Game</t>
   </si>
@@ -2817,6 +2817,39 @@
   </si>
   <si>
     <t>Avg Game Length VS POSH</t>
+  </si>
+  <si>
+    <t>Round 1</t>
+  </si>
+  <si>
+    <t>Round 2</t>
+  </si>
+  <si>
+    <t>Round 3</t>
+  </si>
+  <si>
+    <t>Round 4</t>
+  </si>
+  <si>
+    <t>Round 5</t>
+  </si>
+  <si>
+    <t>Round 6</t>
+  </si>
+  <si>
+    <t>Round 7</t>
+  </si>
+  <si>
+    <t>Round 8</t>
+  </si>
+  <si>
+    <t>Matches Won</t>
+  </si>
+  <si>
+    <t>Avg POSH Score</t>
+  </si>
+  <si>
+    <t>Avg Oponent Score</t>
   </si>
 </sst>
 </file>
@@ -2983,7 +3016,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3149,6 +3182,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -3159,13 +3201,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3416,6 +3478,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3425,43 +3490,93 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="45" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="45" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="10" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="45" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="45" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="45" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="45" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -18554,21 +18669,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4D8A81-C279-40E8-A672-2309C37F83C5}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:CE186"/>
+  <dimension ref="A1:CE190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N186" sqref="C186:N186"/>
+    <sheetView tabSelected="1" topLeftCell="B146" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="11" style="59" customWidth="1"/>
-    <col min="3" max="3" width="12" style="59" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
@@ -18581,6 +18696,8 @@
     <col min="22" max="22" width="15" customWidth="1"/>
     <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.5703125" customWidth="1"/>
+    <col min="57" max="57" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18729,6 +18846,33 @@
       <c r="AD3" s="6">
         <v>0</v>
       </c>
+      <c r="AO3" s="146" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP3" s="147" t="s">
+        <v>927</v>
+      </c>
+      <c r="AQ3" s="147" t="s">
+        <v>928</v>
+      </c>
+      <c r="AR3" s="147" t="s">
+        <v>929</v>
+      </c>
+      <c r="AS3" s="147" t="s">
+        <v>930</v>
+      </c>
+      <c r="AT3" s="147" t="s">
+        <v>931</v>
+      </c>
+      <c r="AU3" s="147" t="s">
+        <v>932</v>
+      </c>
+      <c r="AV3" s="147" t="s">
+        <v>933</v>
+      </c>
+      <c r="AW3" s="147" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -18778,6 +18922,17 @@
       <c r="AD4" s="6">
         <v>0</v>
       </c>
+      <c r="AO4" s="148" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP4" s="149"/>
+      <c r="AQ4" s="149"/>
+      <c r="AR4" s="149"/>
+      <c r="AS4" s="149"/>
+      <c r="AT4" s="150"/>
+      <c r="AU4" s="149"/>
+      <c r="AV4" s="149"/>
+      <c r="AW4" s="149"/>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -18827,6 +18982,17 @@
       <c r="AD5" s="6">
         <v>2</v>
       </c>
+      <c r="AO5" s="151" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP5" s="152"/>
+      <c r="AQ5" s="152"/>
+      <c r="AR5" s="152"/>
+      <c r="AS5" s="152"/>
+      <c r="AT5" s="153"/>
+      <c r="AU5" s="152"/>
+      <c r="AV5" s="152"/>
+      <c r="AW5" s="152"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -18876,6 +19042,20 @@
       <c r="AD6" s="6">
         <v>7</v>
       </c>
+      <c r="AO6" s="151" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP6" s="149"/>
+      <c r="AQ6" s="149"/>
+      <c r="AR6" s="149"/>
+      <c r="AS6" s="149"/>
+      <c r="AT6" s="150"/>
+      <c r="AU6" s="149"/>
+      <c r="AV6" s="149"/>
+      <c r="AW6" s="149"/>
+      <c r="BE6" s="155">
+        <v>32647</v>
+      </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -18925,6 +19105,20 @@
       <c r="AD7" s="6">
         <v>73</v>
       </c>
+      <c r="AO7" s="154" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP7" s="152"/>
+      <c r="AQ7" s="152"/>
+      <c r="AR7" s="152"/>
+      <c r="AS7" s="152"/>
+      <c r="AT7" s="153"/>
+      <c r="AU7" s="152"/>
+      <c r="AV7" s="152"/>
+      <c r="AW7" s="152"/>
+      <c r="BE7" s="156">
+        <v>11765</v>
+      </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -18974,7 +19168,17 @@
       <c r="AD8" s="6">
         <v>27</v>
       </c>
-      <c r="AW8" s="39"/>
+      <c r="AO8" s="154" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP8" s="149"/>
+      <c r="AQ8" s="149"/>
+      <c r="AR8" s="149"/>
+      <c r="AS8" s="149"/>
+      <c r="AT8" s="150"/>
+      <c r="AU8" s="149"/>
+      <c r="AV8" s="149"/>
+      <c r="AW8" s="149"/>
       <c r="AX8" s="40"/>
       <c r="AY8" s="40"/>
       <c r="AZ8" s="39"/>
@@ -18982,7 +19186,9 @@
       <c r="BB8" s="39"/>
       <c r="BC8" s="41"/>
       <c r="BD8" s="39"/>
-      <c r="BE8" s="39"/>
+      <c r="BE8" s="156">
+        <v>8932</v>
+      </c>
       <c r="BF8" s="39"/>
       <c r="BG8" s="39"/>
       <c r="BH8" s="39"/>
@@ -19041,7 +19247,17 @@
       <c r="AD9" s="6">
         <v>0</v>
       </c>
-      <c r="AW9" s="39"/>
+      <c r="AO9" s="151" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP9" s="152"/>
+      <c r="AQ9" s="152"/>
+      <c r="AR9" s="152"/>
+      <c r="AS9" s="152"/>
+      <c r="AT9" s="153"/>
+      <c r="AU9" s="152"/>
+      <c r="AV9" s="152"/>
+      <c r="AW9" s="152"/>
       <c r="AX9" s="40"/>
       <c r="AY9" s="40"/>
       <c r="AZ9" s="39"/>
@@ -19049,7 +19265,9 @@
       <c r="BB9" s="39"/>
       <c r="BC9" s="41"/>
       <c r="BD9" s="39"/>
-      <c r="BE9" s="39"/>
+      <c r="BE9" s="155">
+        <v>85071</v>
+      </c>
       <c r="BF9" s="39"/>
       <c r="BG9" s="39"/>
       <c r="BH9" s="39"/>
@@ -19108,7 +19326,19 @@
       <c r="AD10" s="6">
         <v>128</v>
       </c>
-      <c r="AW10" s="39"/>
+      <c r="AO10" s="148" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP10" s="149">
+        <v>52745</v>
+      </c>
+      <c r="AQ10" s="149"/>
+      <c r="AR10" s="149"/>
+      <c r="AS10" s="149"/>
+      <c r="AT10" s="150"/>
+      <c r="AU10" s="149"/>
+      <c r="AV10" s="149"/>
+      <c r="AW10" s="149"/>
       <c r="AX10" s="40"/>
       <c r="AY10" s="40"/>
       <c r="AZ10" s="39"/>
@@ -19116,7 +19346,9 @@
       <c r="BB10" s="39"/>
       <c r="BC10" s="41"/>
       <c r="BD10" s="39"/>
-      <c r="BE10" s="39"/>
+      <c r="BE10" s="155">
+        <v>19890</v>
+      </c>
       <c r="BF10" s="39"/>
       <c r="BG10" s="39"/>
       <c r="BH10" s="39"/>
@@ -19175,7 +19407,19 @@
       <c r="AD11" s="6">
         <v>2</v>
       </c>
-      <c r="AW11" s="39"/>
+      <c r="AO11" s="154" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP11" s="152">
+        <v>23027</v>
+      </c>
+      <c r="AQ11" s="152"/>
+      <c r="AR11" s="152"/>
+      <c r="AS11" s="152"/>
+      <c r="AT11" s="153"/>
+      <c r="AU11" s="152"/>
+      <c r="AV11" s="152"/>
+      <c r="AW11" s="152"/>
       <c r="AX11" s="40"/>
       <c r="AY11" s="40"/>
       <c r="AZ11" s="39"/>
@@ -19183,7 +19427,9 @@
       <c r="BB11" s="39"/>
       <c r="BC11" s="41"/>
       <c r="BD11" s="39"/>
-      <c r="BE11" s="39"/>
+      <c r="BE11" s="156">
+        <v>7200</v>
+      </c>
       <c r="BF11" s="39"/>
       <c r="BG11" s="39"/>
       <c r="BH11" s="39"/>
@@ -19242,7 +19488,17 @@
       <c r="AD12" s="6">
         <v>77</v>
       </c>
-      <c r="AW12" s="39"/>
+      <c r="AO12" s="151" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP12" s="149"/>
+      <c r="AQ12" s="149"/>
+      <c r="AR12" s="149"/>
+      <c r="AS12" s="149"/>
+      <c r="AT12" s="150"/>
+      <c r="AU12" s="149"/>
+      <c r="AV12" s="149"/>
+      <c r="AW12" s="149"/>
       <c r="AX12" s="40"/>
       <c r="AY12" s="40"/>
       <c r="AZ12" s="39"/>
@@ -19250,7 +19506,9 @@
       <c r="BB12" s="39"/>
       <c r="BC12" s="41"/>
       <c r="BD12" s="39"/>
-      <c r="BE12" s="39"/>
+      <c r="BE12" s="155">
+        <v>28429</v>
+      </c>
       <c r="BF12" s="39"/>
       <c r="BG12" s="39"/>
       <c r="BH12" s="39"/>
@@ -19309,7 +19567,17 @@
       <c r="AD13" s="6">
         <v>0</v>
       </c>
-      <c r="AW13" s="39"/>
+      <c r="AO13" s="154" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP13" s="152"/>
+      <c r="AQ13" s="152"/>
+      <c r="AR13" s="152"/>
+      <c r="AS13" s="152"/>
+      <c r="AT13" s="153"/>
+      <c r="AU13" s="152"/>
+      <c r="AV13" s="152"/>
+      <c r="AW13" s="152"/>
       <c r="AX13" s="40"/>
       <c r="AY13" s="40"/>
       <c r="AZ13" s="39"/>
@@ -19317,7 +19585,9 @@
       <c r="BB13" s="39"/>
       <c r="BC13" s="41"/>
       <c r="BD13" s="39"/>
-      <c r="BE13" s="39"/>
+      <c r="BE13" s="156">
+        <v>10933</v>
+      </c>
       <c r="BF13" s="39"/>
       <c r="BG13" s="39"/>
       <c r="BH13" s="39"/>
@@ -19384,7 +19654,9 @@
       <c r="BB14" s="39"/>
       <c r="BC14" s="41"/>
       <c r="BD14" s="39"/>
-      <c r="BE14" s="39"/>
+      <c r="BE14" s="156">
+        <v>2377</v>
+      </c>
       <c r="BF14" s="39"/>
       <c r="BG14" s="39"/>
       <c r="BH14" s="39"/>
@@ -19585,7 +19857,10 @@
       <c r="BB17" s="39"/>
       <c r="BC17" s="41"/>
       <c r="BD17" s="39"/>
-      <c r="BE17" s="39"/>
+      <c r="BE17" s="157">
+        <f>SUM(BE6:BE14)/9</f>
+        <v>23027.111111111109</v>
+      </c>
       <c r="BF17" s="39"/>
       <c r="BG17" s="39"/>
       <c r="BH17" s="39"/>
@@ -22414,35 +22689,35 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="43">
-        <f>SUM(I68:I140, I142:I149)/80</f>
+        <f>SUM(I68:I140, I141:I148)/80</f>
         <v>19551.674999999999</v>
       </c>
       <c r="U58" s="20">
-        <f>SUM(H68:H140,H142:H149)/80</f>
+        <f>SUM(H68:H140,H141:H148)/80</f>
         <v>26765.674999999999</v>
       </c>
       <c r="W58" s="20">
-        <f>SUM(I74,I80,I81,I88,I89,I96,I97,I104,I105,I113,I114,I122,I123,I131,I132,I139,I140,I143)/17</f>
+        <f>SUM(I74,I80,I81,I88,I89,I96,I97,I104,I105,I113,I114,I122,I123,I131,I132,I139,I140,I142)/17</f>
         <v>29369.529411764706</v>
       </c>
       <c r="X58" s="20">
-        <f>SUM(I71,I72,I73,I77,I78,I79,I85,I86,I87,I93,I94,I95,I101,I102,I103,I109,I110,I111,I112,I118,I119,I120,I121,I127,I128,I129,I130,I136,I137,I138,I142,I145,I146,I147,I148,I149)/36</f>
+        <f>SUM(I71,I72,I73,I77,I78,I79,I85,I86,I87,I93,I94,I95,I101,I102,I103,I109,I110,I111,I112,I118,I119,I120,I121,I127,I128,I129,I130,I136,I137,I138,I141,I144,I145,I146,I147,I148)/36</f>
         <v>24069.583333333332</v>
       </c>
       <c r="Y58" s="20">
-        <f>SUM(I68,I69,I70,I75,I76,I82,I83,I84,I90,I91,I92,I98,I99,I100,I106,I107,I108,I115,I116,I117,I124,I125,I126,I133,I134,I135,I144)/27</f>
+        <f>SUM(I68,I69,I70,I75,I76,I82,I83,I84,I90,I91,I92,I98,I99,I100,I106,I107,I108,I115,I116,I117,I124,I125,I126,I133,I134,I135,I143)/27</f>
         <v>7346.1851851851852</v>
       </c>
       <c r="Z58" s="20">
-        <f>SUM(H74,H80,H81,H88,H89,H96,H97,H104,H105,H113,H114,H122,H123,H131,H132,H139,H140,H143)/17</f>
+        <f>SUM(H74,H80,H81,H88,H89,H96,H97,H104,H105,H113,H114,H122,H123,H131,H132,H139,H140,H142)/17</f>
         <v>33517.76470588235</v>
       </c>
       <c r="AA58" s="20">
-        <f>SUM(H71,H72,H73,H77,H78,H79,H85,H86,H93,H87,H94,H95,H101,H102,H103,H109,H110,H111,H112,H118,H119,H120,H121,H127,H128,H129,H130,H136,H137,H138,H142,H145,H146,H147,H148,H149)/36</f>
+        <f>SUM(H71,H72,H73,H77,H78,H79,H85,H86,H93,H87,H94,H95,H101,H102,H103,H109,H110,H111,H112,H118,H119,H120,H121,H127,H128,H129,H130,H136,H137,H138,H141,H144,H145,H146,H147,H148)/36</f>
         <v>26275.777777777777</v>
       </c>
       <c r="AB58" s="20">
-        <f>SUM(H68,H69,H70,H75,H76,H82,H83,H84,H90,H91,H92,H98,H99,H100,H106,H107,H108,H115,H117,H116,H124,H125,H126,H133,H135,H134,H144)/27</f>
+        <f>SUM(H68,H69,H70,H75,H76,H82,H83,H84,H90,H91,H92,H98,H99,H100,H106,H107,H108,H115,H117,H116,H124,H125,H126,H133,H135,H134,H143)/27</f>
         <v>23167.555555555555</v>
       </c>
       <c r="AW58" s="2"/>
@@ -22544,35 +22819,35 @@
         <v>368</v>
       </c>
       <c r="T60" s="43">
-        <f>_xlfn.STDEV.S(I68:I140, I142:I149)</f>
+        <f>_xlfn.STDEV.S(I68:I140, I141:I148)</f>
         <v>27391.800735094272</v>
       </c>
       <c r="U60" s="43">
-        <f>_xlfn.STDEV.P(H68:H140,H142:H149)</f>
+        <f>_xlfn.STDEV.P(H68:H140,H141:H148)</f>
         <v>18616.993045497144</v>
       </c>
       <c r="W60" s="20">
-        <f>_xlfn.STDEV.P(I74,I80,I81,I88,I89,I96,I97,I104,I105,I113,I114,I122,I123,I131,I132,I139,I140,I143)</f>
+        <f>_xlfn.STDEV.P(I74,I80,I81,I88,I89,I96,I97,I104,I105,I113,I114,I122,I123,I131,I132,I139,I140,I142)</f>
         <v>17778.12334455808</v>
       </c>
       <c r="X60" s="20">
-        <f>_xlfn.STDEV.P(I71,I72,I73,I77,I78,I79,I85,I86,I87,I93,I94,I95,I101,I102,I103,I109,I110,I111,I112,I118,I119,I120,I121,I127,I128,I129,I130,I136,I137,I138,I142,I145,I146,I147,I148,I149)</f>
+        <f>_xlfn.STDEV.P(I71,I72,I73,I77,I78,I79,I85,I86,I87,I93,I94,I95,I101,I102,I103,I109,I110,I111,I112,I118,I119,I120,I121,I127,I128,I129,I130,I136,I137,I138,I141,I144,I145,I146,I147,I148)</f>
         <v>36435.94911803375</v>
       </c>
       <c r="Y60" s="20">
-        <f>_xlfn.STDEV.P(I68,I69,I70,I75,I76,I82,I83,I84,I90,I91,I92,I98,I99,I100,I106,I107,I108,I115,I116,I117,I124,I125,I126,I133,I134,I135,I144)</f>
+        <f>_xlfn.STDEV.P(I68,I69,I70,I75,I76,I82,I83,I84,I90,I91,I92,I98,I99,I100,I106,I107,I108,I115,I116,I117,I124,I125,I126,I133,I134,I135,I143)</f>
         <v>4651.8893894451503</v>
       </c>
       <c r="Z60" s="20">
-        <f>_xlfn.STDEV.P(H74,H80,H81,H88,H89,H96,H97,H104,H105,H113,H114,H122,H123,H131,H132,H139,H140,H143)</f>
+        <f>_xlfn.STDEV.P(H74,H80,H81,H88,H89,H96,H97,H104,H105,H113,H114,H122,H123,H131,H132,H139,H140,H142)</f>
         <v>19071.083287998554</v>
       </c>
       <c r="AA60" s="20">
-        <f>_xlfn.STDEV.P(H71,H72,H73,H77,H78,H79,H85,H86,H93,H87,H94,H95,H101,H102,H103,H109,H110,H111,H112,H118,H119,H120,H121,H127,H128,H129,H130,H136,H137,H138,H142,H145,H146,H147,H148,H149)</f>
+        <f>_xlfn.STDEV.P(H71,H72,H73,H77,H78,H79,H85,H86,H93,H87,H94,H95,H101,H102,H103,H109,H110,H111,H112,H118,H119,H120,H121,H127,H128,H129,H130,H136,H137,H138,H141,H144,H145,H146,H147,H148)</f>
         <v>19881.254247421548</v>
       </c>
       <c r="AB60" s="20">
-        <f>_xlfn.STDEV.P(H68,H69,H70,H75,H76,H82,H83,H84,H90,H91,H92,H98,H99,H100,H106,H107,H108,H115,H117,H116,H124,H125,H126,H133,H135,H134,H144)</f>
+        <f>_xlfn.STDEV.P(H68,H69,H70,H75,H76,H82,H83,H84,H90,H91,H92,H98,H99,H100,H106,H107,H108,H115,H117,H116,H124,H125,H126,H133,H135,H134,H143)</f>
         <v>15537.28468658854</v>
       </c>
       <c r="AW60" s="2"/>
@@ -24009,7 +24284,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="72" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>30</v>
       </c>
@@ -25366,7 +25641,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="78" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>82</v>
       </c>
@@ -27176,7 +27451,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="86" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:83" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>100</v>
       </c>
@@ -28986,7 +29261,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="94" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
         <v>113</v>
       </c>
@@ -30798,7 +31073,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="102" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
         <v>242</v>
       </c>
@@ -32610,7 +32885,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="110" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
         <v>266</v>
       </c>
@@ -34648,7 +34923,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="119" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="33" t="s">
         <v>293</v>
       </c>
@@ -36684,7 +36959,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="128" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
         <v>321</v>
       </c>
@@ -38720,7 +38995,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="137" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:83" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="33" t="s">
         <v>348</v>
       </c>
@@ -39625,6 +39900,62 @@
       </c>
     </row>
     <row r="141" spans="1:83" ht="21" x14ac:dyDescent="0.25">
+      <c r="A141" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B141" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C141" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" s="30"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G141" s="81">
+        <v>4.1331018518518517E-2</v>
+      </c>
+      <c r="H141" s="30">
+        <v>16095</v>
+      </c>
+      <c r="I141" s="30">
+        <v>66936</v>
+      </c>
+      <c r="J141" s="30">
+        <v>0.75953999999999999</v>
+      </c>
+      <c r="K141" s="30">
+        <v>0</v>
+      </c>
+      <c r="L141" s="30">
+        <v>0</v>
+      </c>
+      <c r="M141" s="30">
+        <v>0</v>
+      </c>
+      <c r="N141" s="30">
+        <v>0</v>
+      </c>
+      <c r="O141" s="30">
+        <v>0</v>
+      </c>
+      <c r="P141" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="R141" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="S141" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="T141" s="30" t="s">
+        <v>153</v>
+      </c>
       <c r="V141" s="33" t="s">
         <v>570</v>
       </c>
@@ -39795,61 +40126,61 @@
       </c>
     </row>
     <row r="142" spans="1:83" ht="21" x14ac:dyDescent="0.25">
-      <c r="A142" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B142" s="56" t="s">
+      <c r="A142" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B142" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="C142" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D142" s="30"/>
-      <c r="E142" s="30"/>
-      <c r="F142" s="30" t="s">
+      <c r="C142" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G142" s="81">
-        <v>4.1331018518518517E-2</v>
-      </c>
-      <c r="H142" s="30">
-        <v>16095</v>
-      </c>
-      <c r="I142" s="30">
-        <v>66936</v>
-      </c>
-      <c r="J142" s="30">
-        <v>0.75953999999999999</v>
-      </c>
-      <c r="K142" s="30">
-        <v>0</v>
-      </c>
-      <c r="L142" s="30">
-        <v>0</v>
-      </c>
-      <c r="M142" s="30">
-        <v>0</v>
-      </c>
-      <c r="N142" s="30">
-        <v>0</v>
-      </c>
-      <c r="O142" s="30">
-        <v>0</v>
-      </c>
-      <c r="P142" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q142" s="30" t="s">
+      <c r="G142" s="82">
+        <v>1.59375E-2</v>
+      </c>
+      <c r="H142" s="33">
+        <v>34845</v>
+      </c>
+      <c r="I142" s="33">
+        <v>54879</v>
+      </c>
+      <c r="J142" s="33">
+        <v>0.36504999999999999</v>
+      </c>
+      <c r="K142" s="33">
+        <v>0</v>
+      </c>
+      <c r="L142" s="33">
+        <v>0</v>
+      </c>
+      <c r="M142" s="33">
+        <v>0</v>
+      </c>
+      <c r="N142" s="33">
+        <v>0</v>
+      </c>
+      <c r="O142" s="33">
+        <v>0</v>
+      </c>
+      <c r="P142" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="R142" s="30" t="s">
+      <c r="R142" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="S142" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="T142" s="30" t="s">
-        <v>153</v>
+      <c r="S142" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="T142" s="33" t="s">
+        <v>155</v>
       </c>
       <c r="V142" s="30" t="s">
         <v>573</v>
@@ -40021,61 +40352,63 @@
       </c>
     </row>
     <row r="143" spans="1:83" ht="21" x14ac:dyDescent="0.25">
-      <c r="A143" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B143" s="57" t="s">
+      <c r="A143" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B143" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="C143" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D143" s="33"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G143" s="82">
-        <v>1.59375E-2</v>
-      </c>
-      <c r="H143" s="33">
-        <v>34845</v>
-      </c>
-      <c r="I143" s="33">
-        <v>54879</v>
-      </c>
-      <c r="J143" s="33">
-        <v>0.36504999999999999</v>
-      </c>
-      <c r="K143" s="33">
-        <v>0</v>
-      </c>
-      <c r="L143" s="33">
-        <v>0</v>
-      </c>
-      <c r="M143" s="33">
-        <v>0</v>
-      </c>
-      <c r="N143" s="33">
-        <v>0</v>
-      </c>
-      <c r="O143" s="33">
-        <v>0</v>
-      </c>
-      <c r="P143" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q143" s="33" t="s">
+      <c r="C143" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E143" s="30"/>
+      <c r="F143" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G143" s="81">
+        <v>4.6990740740740743E-3</v>
+      </c>
+      <c r="H143" s="30">
+        <v>10342</v>
+      </c>
+      <c r="I143" s="30">
+        <v>4117</v>
+      </c>
+      <c r="J143" s="30">
+        <v>-0.60185999999999995</v>
+      </c>
+      <c r="K143" s="30">
+        <v>0</v>
+      </c>
+      <c r="L143" s="30">
+        <v>0</v>
+      </c>
+      <c r="M143" s="30">
+        <v>0</v>
+      </c>
+      <c r="N143" s="30">
+        <v>1</v>
+      </c>
+      <c r="O143" s="30">
+        <v>0</v>
+      </c>
+      <c r="P143" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="R143" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="R143" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="S143" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="T143" s="33" t="s">
-        <v>155</v>
+      <c r="S143" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="T143" s="30" t="s">
+        <v>157</v>
       </c>
       <c r="V143" s="33" t="s">
         <v>576</v>
@@ -40247,63 +40580,61 @@
       </c>
     </row>
     <row r="144" spans="1:83" ht="21" x14ac:dyDescent="0.25">
-      <c r="A144" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B144" s="56" t="s">
+      <c r="A144" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B144" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="C144" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D144" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E144" s="30"/>
-      <c r="F144" s="30" t="s">
+      <c r="C144" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D144" s="33"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G144" s="81">
-        <v>4.6990740740740743E-3</v>
-      </c>
-      <c r="H144" s="30">
-        <v>10342</v>
-      </c>
-      <c r="I144" s="30">
-        <v>4117</v>
-      </c>
-      <c r="J144" s="30">
-        <v>-0.60185999999999995</v>
-      </c>
-      <c r="K144" s="30">
-        <v>0</v>
-      </c>
-      <c r="L144" s="30">
-        <v>0</v>
-      </c>
-      <c r="M144" s="30">
-        <v>0</v>
-      </c>
-      <c r="N144" s="30">
-        <v>1</v>
-      </c>
-      <c r="O144" s="30">
-        <v>0</v>
-      </c>
-      <c r="P144" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q144" s="30" t="s">
+      <c r="G144" s="82">
+        <v>4.1331018518518517E-2</v>
+      </c>
+      <c r="H144" s="33">
+        <v>68081</v>
+      </c>
+      <c r="I144" s="33">
+        <v>146057</v>
+      </c>
+      <c r="J144" s="33">
+        <v>0.53386999999999996</v>
+      </c>
+      <c r="K144" s="33">
+        <v>0</v>
+      </c>
+      <c r="L144" s="33">
+        <v>0</v>
+      </c>
+      <c r="M144" s="33">
+        <v>0</v>
+      </c>
+      <c r="N144" s="33">
+        <v>0</v>
+      </c>
+      <c r="O144" s="33">
+        <v>0</v>
+      </c>
+      <c r="P144" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="R144" s="30" t="s">
+      <c r="R144" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="S144" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="T144" s="30" t="s">
-        <v>157</v>
+      <c r="S144" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="T144" s="33" t="s">
+        <v>159</v>
       </c>
       <c r="V144" s="30" t="s">
         <v>579</v>
@@ -40475,61 +40806,61 @@
       </c>
     </row>
     <row r="145" spans="1:83" ht="21" x14ac:dyDescent="0.25">
-      <c r="A145" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B145" s="57" t="s">
+      <c r="A145" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B145" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="C145" s="57" t="s">
+      <c r="C145" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D145" s="33"/>
-      <c r="E145" s="33"/>
-      <c r="F145" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G145" s="82">
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G145" s="81">
         <v>4.1331018518518517E-2</v>
       </c>
-      <c r="H145" s="33">
-        <v>68081</v>
-      </c>
-      <c r="I145" s="33">
-        <v>146057</v>
-      </c>
-      <c r="J145" s="33">
-        <v>0.53386999999999996</v>
-      </c>
-      <c r="K145" s="33">
-        <v>0</v>
-      </c>
-      <c r="L145" s="33">
-        <v>0</v>
-      </c>
-      <c r="M145" s="33">
-        <v>0</v>
-      </c>
-      <c r="N145" s="33">
-        <v>0</v>
-      </c>
-      <c r="O145" s="33">
-        <v>0</v>
-      </c>
-      <c r="P145" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q145" s="33" t="s">
+      <c r="H145" s="30">
+        <v>30350</v>
+      </c>
+      <c r="I145" s="30">
+        <v>73503</v>
+      </c>
+      <c r="J145" s="30">
+        <v>0.58708000000000005</v>
+      </c>
+      <c r="K145" s="30">
+        <v>0</v>
+      </c>
+      <c r="L145" s="30">
+        <v>0</v>
+      </c>
+      <c r="M145" s="30">
+        <v>0</v>
+      </c>
+      <c r="N145" s="30">
+        <v>0</v>
+      </c>
+      <c r="O145" s="30">
+        <v>0</v>
+      </c>
+      <c r="P145" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="R145" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="R145" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="S145" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="T145" s="33" t="s">
-        <v>159</v>
+      <c r="S145" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="T145" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="V145" s="33" t="s">
         <v>582</v>
@@ -40701,61 +41032,61 @@
       </c>
     </row>
     <row r="146" spans="1:83" ht="21" x14ac:dyDescent="0.25">
-      <c r="A146" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B146" s="56" t="s">
+      <c r="A146" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B146" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="C146" s="56" t="s">
+      <c r="C146" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G146" s="81">
-        <v>4.1331018518518517E-2</v>
-      </c>
-      <c r="H146" s="30">
-        <v>30350</v>
-      </c>
-      <c r="I146" s="30">
-        <v>73503</v>
-      </c>
-      <c r="J146" s="30">
-        <v>0.58708000000000005</v>
-      </c>
-      <c r="K146" s="30">
-        <v>0</v>
-      </c>
-      <c r="L146" s="30">
-        <v>0</v>
-      </c>
-      <c r="M146" s="30">
-        <v>0</v>
-      </c>
-      <c r="N146" s="30">
-        <v>0</v>
-      </c>
-      <c r="O146" s="30">
-        <v>0</v>
-      </c>
-      <c r="P146" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q146" s="30" t="s">
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G146" s="82">
+        <v>7.6504629629629631E-3</v>
+      </c>
+      <c r="H146" s="33">
+        <v>8108</v>
+      </c>
+      <c r="I146" s="33">
+        <v>13701</v>
+      </c>
+      <c r="J146" s="33">
+        <v>0.40819</v>
+      </c>
+      <c r="K146" s="33">
+        <v>0</v>
+      </c>
+      <c r="L146" s="33">
+        <v>0</v>
+      </c>
+      <c r="M146" s="33">
+        <v>0</v>
+      </c>
+      <c r="N146" s="33">
+        <v>0</v>
+      </c>
+      <c r="O146" s="33">
+        <v>0</v>
+      </c>
+      <c r="P146" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="R146" s="30" t="s">
+      <c r="R146" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="S146" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="T146" s="30" t="s">
-        <v>161</v>
+      <c r="S146" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="T146" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="V146" s="30" t="s">
         <v>585</v>
@@ -40927,61 +41258,61 @@
       </c>
     </row>
     <row r="147" spans="1:83" ht="21" x14ac:dyDescent="0.25">
-      <c r="A147" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B147" s="57" t="s">
+      <c r="A147" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B147" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="C147" s="57" t="s">
+      <c r="C147" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G147" s="82">
-        <v>7.6504629629629631E-3</v>
-      </c>
-      <c r="H147" s="33">
-        <v>8108</v>
-      </c>
-      <c r="I147" s="33">
-        <v>13701</v>
-      </c>
-      <c r="J147" s="33">
-        <v>0.40819</v>
-      </c>
-      <c r="K147" s="33">
-        <v>0</v>
-      </c>
-      <c r="L147" s="33">
-        <v>0</v>
-      </c>
-      <c r="M147" s="33">
-        <v>0</v>
-      </c>
-      <c r="N147" s="33">
-        <v>0</v>
-      </c>
-      <c r="O147" s="33">
-        <v>0</v>
-      </c>
-      <c r="P147" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q147" s="33" t="s">
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G147" s="81">
+        <v>4.1331018518518517E-2</v>
+      </c>
+      <c r="H147" s="30">
+        <v>34480</v>
+      </c>
+      <c r="I147" s="30">
+        <v>78965</v>
+      </c>
+      <c r="J147" s="30">
+        <v>0.56333999999999995</v>
+      </c>
+      <c r="K147" s="30">
+        <v>0</v>
+      </c>
+      <c r="L147" s="30">
+        <v>0</v>
+      </c>
+      <c r="M147" s="30">
+        <v>0</v>
+      </c>
+      <c r="N147" s="30">
+        <v>0</v>
+      </c>
+      <c r="O147" s="30">
+        <v>0</v>
+      </c>
+      <c r="P147" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="R147" s="33" t="s">
+      <c r="R147" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="S147" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="T147" s="33" t="s">
-        <v>163</v>
+      <c r="S147" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="T147" s="30" t="s">
+        <v>166</v>
       </c>
       <c r="V147" s="33" t="s">
         <v>588</v>
@@ -41153,61 +41484,61 @@
       </c>
     </row>
     <row r="148" spans="1:83" ht="21" x14ac:dyDescent="0.25">
-      <c r="A148" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B148" s="56" t="s">
+      <c r="A148" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B148" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="C148" s="56" t="s">
+      <c r="C148" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="G148" s="81">
+      <c r="D148" s="33"/>
+      <c r="E148" s="33"/>
+      <c r="F148" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G148" s="82">
         <v>4.1331018518518517E-2</v>
       </c>
-      <c r="H148" s="30">
-        <v>34480</v>
-      </c>
-      <c r="I148" s="30">
-        <v>78965</v>
-      </c>
-      <c r="J148" s="30">
-        <v>0.56333999999999995</v>
-      </c>
-      <c r="K148" s="30">
-        <v>0</v>
-      </c>
-      <c r="L148" s="30">
-        <v>0</v>
-      </c>
-      <c r="M148" s="30">
-        <v>0</v>
-      </c>
-      <c r="N148" s="30">
-        <v>0</v>
-      </c>
-      <c r="O148" s="30">
-        <v>0</v>
-      </c>
-      <c r="P148" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q148" s="30" t="s">
+      <c r="H148" s="33">
+        <v>35594</v>
+      </c>
+      <c r="I148" s="33">
+        <v>91620</v>
+      </c>
+      <c r="J148" s="33">
+        <v>0.61150000000000004</v>
+      </c>
+      <c r="K148" s="33">
+        <v>0</v>
+      </c>
+      <c r="L148" s="33">
+        <v>0</v>
+      </c>
+      <c r="M148" s="33">
+        <v>0</v>
+      </c>
+      <c r="N148" s="33">
+        <v>0</v>
+      </c>
+      <c r="O148" s="33">
+        <v>0</v>
+      </c>
+      <c r="P148" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="R148" s="30" t="s">
+      <c r="R148" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="S148" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="T148" s="30" t="s">
-        <v>166</v>
+      <c r="S148" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="T148" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="V148" s="30" t="s">
         <v>591</v>
@@ -41376,64 +41707,6 @@
       </c>
       <c r="CE148" s="30" t="s">
         <v>578</v>
-      </c>
-    </row>
-    <row r="149" spans="1:83" ht="21" x14ac:dyDescent="0.25">
-      <c r="A149" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B149" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="C149" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G149" s="82">
-        <v>4.1331018518518517E-2</v>
-      </c>
-      <c r="H149" s="33">
-        <v>35594</v>
-      </c>
-      <c r="I149" s="33">
-        <v>91620</v>
-      </c>
-      <c r="J149" s="33">
-        <v>0.61150000000000004</v>
-      </c>
-      <c r="K149" s="33">
-        <v>0</v>
-      </c>
-      <c r="L149" s="33">
-        <v>0</v>
-      </c>
-      <c r="M149" s="33">
-        <v>0</v>
-      </c>
-      <c r="N149" s="33">
-        <v>0</v>
-      </c>
-      <c r="O149" s="33">
-        <v>0</v>
-      </c>
-      <c r="P149" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q149" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="R149" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="S149" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="T149" s="33" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:83" x14ac:dyDescent="0.25">
@@ -41457,16 +41730,27 @@
       <c r="S152" s="39"/>
       <c r="T152" s="39"/>
     </row>
-    <row r="153" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:83" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="39"/>
       <c r="B153" s="46"/>
-      <c r="C153" s="46"/>
-      <c r="D153" s="39"/>
-      <c r="E153" s="39"/>
-      <c r="F153" s="39"/>
-      <c r="G153" s="41"/>
-      <c r="I153" s="39"/>
-      <c r="J153" s="39"/>
+      <c r="C153" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" s="80" t="s">
+        <v>935</v>
+      </c>
+      <c r="E153" s="80" t="s">
+        <v>379</v>
+      </c>
+      <c r="F153" s="80" t="s">
+        <v>936</v>
+      </c>
+      <c r="G153" s="160" t="s">
+        <v>937</v>
+      </c>
+      <c r="H153" s="159"/>
+      <c r="I153" s="158"/>
+      <c r="J153" s="158"/>
       <c r="K153" s="39"/>
       <c r="L153" s="39"/>
       <c r="M153" s="39"/>
@@ -41481,13 +41765,27 @@
     <row r="154" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A154" s="39"/>
       <c r="B154" s="46"/>
-      <c r="C154" s="46"/>
-      <c r="D154" s="39"/>
-      <c r="E154" s="39"/>
-      <c r="F154" s="39"/>
-      <c r="G154" s="41"/>
-      <c r="I154" s="39"/>
-      <c r="J154" s="39"/>
+      <c r="C154" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="D154" s="80">
+        <v>8</v>
+      </c>
+      <c r="E154" s="161">
+        <f>SUM(G141,G142,G143,G145,G144,G146,G147,G148)/10</f>
+        <v>2.3494212962962956E-2</v>
+      </c>
+      <c r="F154" s="162">
+        <f>SUM(I141,I142,I143,I144,I145,I146,I147,I148)/10</f>
+        <v>52977.8</v>
+      </c>
+      <c r="G154" s="162">
+        <f>SUM(H141,H142,H143,H144,H145,H146,H147,H148)/10</f>
+        <v>23789.5</v>
+      </c>
+      <c r="H154" s="159"/>
+      <c r="I154" s="158"/>
+      <c r="J154" s="158"/>
       <c r="K154" s="39"/>
       <c r="L154" s="39"/>
       <c r="M154" s="39"/>
@@ -41506,7 +41804,6 @@
       <c r="D155" s="39"/>
       <c r="E155" s="39"/>
       <c r="F155" s="39"/>
-      <c r="G155" s="41"/>
       <c r="I155" s="39"/>
       <c r="J155" s="39"/>
       <c r="K155" s="39"/>
@@ -41800,7 +42097,7 @@
       </c>
       <c r="I165" s="48"/>
       <c r="K165" s="48"/>
-      <c r="L165" s="109">
+      <c r="L165" s="112">
         <f>SUM(I183-I186)/I183*100</f>
         <v>100</v>
       </c>
@@ -41821,19 +42118,19 @@
       <c r="C166" s="46"/>
       <c r="D166" s="39"/>
       <c r="E166" s="83">
-        <f>SUM(G68:G149)/80</f>
+        <f>SUM(G68:G148)/80</f>
         <v>1.1391493055555552E-2</v>
       </c>
       <c r="F166" s="83">
-        <f>SUM(G143,G140,G139,G132,G131,G123,G122,G114,G113,G105,G104,G97,G96,G89,G88,G81,G80,G74)/17</f>
+        <f>SUM(G142,G140,G139,G132,G131,G123,G122,G114,G113,G105,G104,G97,G96,G89,G88,G81,G80,G74)/17</f>
         <v>1.16489651416122E-2</v>
       </c>
       <c r="G166" s="83">
-        <f>SUM(G149,G148,G147,G146,G145,G142,G138,G137,G136,G130,G129,G128,G127,G121,G120,G119,G118,G112,G111,G110,G109,G103,G102,G101,G95,G94,G93,G87,G86,G85,G79,G78,G77,G73,G72,G71)/36</f>
+        <f>SUM(G148,G147,G146,G145,G144,G141,G138,G137,G136,G130,G129,G128,G127,G121,G120,G119,G118,G112,G111,G110,G109,G103,G102,G101,G95,G94,G93,G87,G86,G85,G79,G78,G77,G73,G72,G71)/36</f>
         <v>1.3666730967078194E-2</v>
       </c>
       <c r="H166" s="83">
-        <f>SUM(G144,G135,G134,G133,G126,G124,G125,G117,G116,G115,G108,G107,G106,G100,G99,G98,G92,G91,G90,G84,G82,G83,G76,G75,G70,G69,G68)/27</f>
+        <f>SUM(G143,G135,G134,G133,G126,G124,G125,G117,G116,G115,G108,G107,G106,G100,G99,G98,G92,G91,G90,G84,G82,G83,G76,G75,G70,G69,G68)/27</f>
         <v>8.1957304526748959E-3</v>
       </c>
       <c r="I166" s="83">
@@ -41841,7 +42138,7 @@
         <v>1.1170475520455097E-2</v>
       </c>
       <c r="K166" s="39"/>
-      <c r="L166" s="109" t="e">
+      <c r="L166" s="112" t="e">
         <f>SUM(I186-I183)/I186*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -42176,11 +42473,11 @@
       </c>
       <c r="J178" s="101"/>
       <c r="K178" s="101"/>
-      <c r="L178" s="110">
+      <c r="L178" s="113">
         <f>SUM(6.25-15.35)/6.25*100</f>
         <v>-145.6</v>
       </c>
-      <c r="M178" s="139">
+      <c r="M178" s="135">
         <f>SUM(G183-I183)/G183*100</f>
         <v>-7.8050429525930678</v>
       </c>
@@ -42212,11 +42509,11 @@
       </c>
       <c r="J179" s="101"/>
       <c r="K179" s="101"/>
-      <c r="L179" s="110">
+      <c r="L179" s="113">
         <f>SUM(13.13-8.18)/13.13*100</f>
         <v>37.699923838537707</v>
       </c>
-      <c r="M179" s="138">
+      <c r="M179" s="134">
         <f>SUM(G184-I184)/G184*100</f>
         <v>-268.56633053069834</v>
       </c>
@@ -42246,11 +42543,11 @@
       </c>
       <c r="J180" s="101"/>
       <c r="K180" s="101"/>
-      <c r="L180" s="110">
+      <c r="L180" s="113">
         <f>SUM(16.11-14.18)/16.11*100</f>
         <v>11.980136561142146</v>
       </c>
-      <c r="M180" s="138">
+      <c r="M180" s="134">
         <f>SUM(G185-I185)/G185*100</f>
         <v>-224.24780284205204</v>
       </c>
@@ -42268,16 +42565,16 @@
       <c r="L181" s="102"/>
     </row>
     <row r="182" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C182" s="112" t="s">
+      <c r="C182" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="D182" s="108" t="s">
+      <c r="D182" s="111" t="s">
         <v>373</v>
       </c>
-      <c r="E182" s="113" t="s">
+      <c r="E182" s="116" t="s">
         <v>370</v>
       </c>
-      <c r="F182" s="114" t="s">
+      <c r="F182" s="117" t="s">
         <v>380</v>
       </c>
       <c r="G182" s="80" t="s">
@@ -42286,66 +42583,66 @@
       <c r="H182" s="84" t="s">
         <v>377</v>
       </c>
-      <c r="I182" s="108" t="s">
+      <c r="I182" s="111" t="s">
         <v>375</v>
       </c>
-      <c r="J182" s="115" t="s">
+      <c r="J182" s="118" t="s">
         <v>377</v>
       </c>
-      <c r="K182" s="116" t="s">
+      <c r="K182" s="119" t="s">
         <v>376</v>
       </c>
-      <c r="L182" s="108" t="s">
+      <c r="L182" s="111" t="s">
         <v>924</v>
       </c>
-      <c r="M182" s="108" t="s">
+      <c r="M182" s="111" t="s">
         <v>926</v>
       </c>
-      <c r="N182" s="116" t="s">
+      <c r="N182" s="119" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="183" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C183" s="117" t="s">
+      <c r="C183" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="D183" s="118">
+      <c r="D183" s="121">
         <v>9</v>
       </c>
-      <c r="E183" s="118">
+      <c r="E183" s="121">
         <v>9</v>
       </c>
-      <c r="F183" s="121">
+      <c r="F183" s="124">
         <f>SUM(E183/D183)</f>
         <v>1</v>
       </c>
-      <c r="G183" s="126">
+      <c r="G183" s="130">
         <f>SUM(I74,I81,I89,I97,I105,I114,I123,I132,I140)/9</f>
         <v>22350.222222222223</v>
       </c>
-      <c r="H183" s="129">
+      <c r="H183" s="133">
         <f>_xlfn.STDEV.P(I74,I81,I89,I97,I105,I114,I123,I132,I140)</f>
         <v>8795.2952041642729</v>
       </c>
-      <c r="I183" s="123">
+      <c r="I183" s="127">
         <f>SUM(AC68,AC77,AC86,AC95,AC104,AC113,AC122,AC131,AC140)/9</f>
         <v>24094.666666666668</v>
       </c>
-      <c r="J183" s="123">
+      <c r="J183" s="127">
         <f>_xlfn.STDEV.P(AC68,AC77,AC86,AC95,AC104,AC113,AC122,AC131,AC140)</f>
         <v>6418.5518269743334</v>
       </c>
-      <c r="K183" s="111">
+      <c r="K183" s="114">
         <v>-7.8100000000000003E-2</v>
       </c>
       <c r="L183" s="94">
         <v>0.2673611111111111</v>
       </c>
-      <c r="M183" s="125">
+      <c r="M183" s="129">
         <f>SUM(AB68,AB77,AB86,AB95,AB104,AB113,AB122,AB131,AB140,AB140)/9</f>
         <v>1.0816615226337447E-2</v>
       </c>
-      <c r="N183" s="111">
+      <c r="N183" s="114">
         <v>1.456</v>
       </c>
     </row>
@@ -42353,28 +42650,28 @@
       <c r="C184" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D184" s="119">
+      <c r="D184" s="122">
         <v>9</v>
       </c>
-      <c r="E184" s="119">
+      <c r="E184" s="122">
         <v>9</v>
       </c>
-      <c r="F184" s="122">
+      <c r="F184" s="125">
         <v>1</v>
       </c>
-      <c r="G184" s="126">
+      <c r="G184" s="130">
         <f>SUM(I72,I78,I86,I94,I102,I119,I110,I128,I137)/9</f>
         <v>4109.8888888888887</v>
       </c>
-      <c r="H184" s="129">
+      <c r="H184" s="133">
         <f>_xlfn.STDEV.P(I72,I78,I86,I94,I102,I110,I119,I128,I137)</f>
         <v>913.9482655483107</v>
       </c>
-      <c r="I184" s="127">
+      <c r="I184" s="131">
         <f>SUM(H72,H78,H86,H94,H102,H110,H119,H128,H137)/9</f>
         <v>15147.666666666666</v>
       </c>
-      <c r="J184" s="127">
+      <c r="J184" s="131">
         <f>_xlfn.STDEV.P(H72,H78,H86,H94,H102,H110,H119,H128,H137)</f>
         <v>2253.2477301294089</v>
       </c>
@@ -42384,7 +42681,7 @@
       <c r="L184" s="95">
         <v>0.55069444444444449</v>
       </c>
-      <c r="M184" s="128">
+      <c r="M184" s="132">
         <f>SUM(G137,G128,G119,G110,G102,G94,G86,G78,G72)/9</f>
         <v>5.7600308641975314E-3</v>
       </c>
@@ -42396,38 +42693,38 @@
       <c r="C185" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D185" s="120">
+      <c r="D185" s="123">
         <v>9</v>
       </c>
-      <c r="E185" s="120">
+      <c r="E185" s="123">
         <v>9</v>
       </c>
-      <c r="F185" s="122">
+      <c r="F185" s="125">
         <v>1</v>
       </c>
-      <c r="G185" s="126">
+      <c r="G185" s="130">
         <f>SUM(I70,I76,I84,I92,I100,I108,I117,I126,I135)/9</f>
         <v>10329</v>
       </c>
-      <c r="H185" s="129">
+      <c r="H185" s="133">
         <f>_xlfn.STDEV.P(I70,I76,I84,I92,I100,I108,I117,I126,I135)</f>
         <v>2050.8928678884122</v>
       </c>
-      <c r="I185" s="124">
+      <c r="I185" s="128">
         <f>SUM(H70,H76,H84,H92,H100,H108,H117,H126,H135)/9</f>
         <v>33491.555555555555</v>
       </c>
-      <c r="J185" s="124">
+      <c r="J185" s="128">
         <f>_xlfn.STDEV.P(H70,H76,H84,H92,H100,H108,H117,H126,H135)</f>
         <v>2458.4264213386177</v>
       </c>
-      <c r="K185" s="70">
+      <c r="K185" s="68">
         <v>-2.2423999999999999</v>
       </c>
       <c r="L185" s="95">
         <v>0.6743055555555556</v>
       </c>
-      <c r="M185" s="128">
+      <c r="M185" s="132">
         <f>SUM(G70,G76,G84,G92,G100,G108,G117,G126,G135)/9</f>
         <v>9.9279835390946505E-3</v>
       </c>
@@ -42436,24 +42733,168 @@
       </c>
     </row>
     <row r="186" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C186" s="130"/>
-      <c r="D186" s="131"/>
-      <c r="E186" s="131"/>
-      <c r="F186" s="132"/>
-      <c r="G186" s="91"/>
-      <c r="H186" s="91"/>
-      <c r="I186" s="133"/>
-      <c r="J186" s="134"/>
-      <c r="K186" s="132"/>
-      <c r="L186" s="135"/>
-      <c r="M186" s="136"/>
-      <c r="N186" s="137"/>
+      <c r="C186" s="108"/>
+      <c r="D186" s="136"/>
+      <c r="E186" s="136"/>
+      <c r="F186" s="110"/>
+      <c r="G186" s="109"/>
+      <c r="H186" s="109"/>
+      <c r="I186" s="137"/>
+      <c r="J186" s="137"/>
+      <c r="K186" s="110"/>
+      <c r="L186" s="138"/>
+      <c r="M186" s="139"/>
+      <c r="N186" s="110"/>
+    </row>
+    <row r="187" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C187" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" s="111" t="s">
+        <v>373</v>
+      </c>
+      <c r="E187" s="116"/>
+      <c r="F187" s="117" t="s">
+        <v>380</v>
+      </c>
+      <c r="G187" s="80" t="s">
+        <v>374</v>
+      </c>
+      <c r="H187" s="84" t="s">
+        <v>377</v>
+      </c>
+      <c r="I187" s="111" t="s">
+        <v>375</v>
+      </c>
+      <c r="J187" s="118" t="s">
+        <v>377</v>
+      </c>
+      <c r="K187" s="119" t="s">
+        <v>376</v>
+      </c>
+      <c r="L187" s="111" t="s">
+        <v>924</v>
+      </c>
+      <c r="M187" s="111" t="s">
+        <v>926</v>
+      </c>
+      <c r="N187" s="119" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="188" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C188" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="D188" s="121">
+        <v>9</v>
+      </c>
+      <c r="E188" s="121"/>
+      <c r="F188" s="124">
+        <v>1</v>
+      </c>
+      <c r="G188" s="130">
+        <v>22350.222222222223</v>
+      </c>
+      <c r="H188" s="133">
+        <v>8795.2952041642729</v>
+      </c>
+      <c r="I188" s="127">
+        <v>24094.666666666668</v>
+      </c>
+      <c r="J188" s="127">
+        <v>6418.5518269743334</v>
+      </c>
+      <c r="K188" s="114">
+        <v>-7.8100000000000003E-2</v>
+      </c>
+      <c r="L188" s="94">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="M188" s="129">
+        <v>1.0816615226337447E-2</v>
+      </c>
+      <c r="N188" s="114">
+        <v>1.456</v>
+      </c>
+    </row>
+    <row r="189" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C189" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D189" s="122">
+        <v>9</v>
+      </c>
+      <c r="E189" s="122"/>
+      <c r="F189" s="125">
+        <v>1</v>
+      </c>
+      <c r="G189" s="130">
+        <v>4109.8888888888887</v>
+      </c>
+      <c r="H189" s="133">
+        <v>913.9482655483107</v>
+      </c>
+      <c r="I189" s="131">
+        <v>15147.666666666666</v>
+      </c>
+      <c r="J189" s="131">
+        <v>2253.2477301294089</v>
+      </c>
+      <c r="K189" s="68">
+        <v>-2.6856</v>
+      </c>
+      <c r="L189" s="95">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="M189" s="132">
+        <v>5.7600308641975314E-3</v>
+      </c>
+      <c r="N189" s="68">
+        <v>-0.377</v>
+      </c>
+    </row>
+    <row r="190" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C190" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D190" s="140">
+        <v>9</v>
+      </c>
+      <c r="E190" s="140"/>
+      <c r="F190" s="126">
+        <v>1</v>
+      </c>
+      <c r="G190" s="141">
+        <v>10329</v>
+      </c>
+      <c r="H190" s="142">
+        <v>2050.8928678884122</v>
+      </c>
+      <c r="I190" s="143">
+        <v>33491.555555555555</v>
+      </c>
+      <c r="J190" s="143">
+        <v>2458.4264213386177</v>
+      </c>
+      <c r="K190" s="70">
+        <v>-2.2423999999999999</v>
+      </c>
+      <c r="L190" s="144">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="M190" s="145">
+        <v>9.9279835390946505E-3</v>
+      </c>
+      <c r="N190" s="70">
+        <v>-0.1198</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A67:T140" xr:uid="{9B513DDC-6C9C-43F7-A6B4-DFFF987F6CC7}">
+  <autoFilter ref="A67:T148" xr:uid="{9B513DDC-6C9C-43F7-A6B4-DFFF987F6CC7}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Iron"/>
+        <filter val="POSH-core"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -42602,21 +43043,21 @@
     <hyperlink ref="C139" r:id="rId142" display="html/replays/POSH-CORE/00367-POSH_CIME.REP" xr:uid="{D81AA046-FFEF-46D4-AEE2-2F91CDA1FB32}"/>
     <hyperlink ref="B140" r:id="rId143" display="html/replays/ZZZKBOT/00368-ZZZK_POSH.REP" xr:uid="{4F509912-7D87-42E3-BDEF-8F3583376804}"/>
     <hyperlink ref="C140" r:id="rId144" display="html/replays/POSH-CORE/00368-POSH_ZZZK.REP" xr:uid="{0C429ECD-71AF-43E9-87E8-0AE4E6F07641}"/>
-    <hyperlink ref="B142" r:id="rId145" display="html/replays/POSH-CORE/00006-POSH_ORIT.REP" xr:uid="{FFAAB4EC-CA95-40B4-9E97-51088B7A761C}"/>
-    <hyperlink ref="C142" r:id="rId146" display="html/replays/ORITAKA/00006-ORIT_POSH.REP" xr:uid="{B8E893ED-14F2-4CC1-870B-C283E44C230A}"/>
-    <hyperlink ref="B143" r:id="rId147" display="html/replays/POSH-CORE/00007-POSH_CIME.REP" xr:uid="{7F98EA1F-B2CC-410E-921A-D7D3C6EA392C}"/>
-    <hyperlink ref="C143" r:id="rId148" display="html/replays/CIMEX/00007-CIME_POSH.REP" xr:uid="{2C29D367-8947-44C6-8E94-C547E0F670A7}"/>
-    <hyperlink ref="B144" r:id="rId149" display="html/replays/POSH-CORE/00046-POSH_MEGA.REP" xr:uid="{A21A28A3-3BE7-46D9-8EF2-58D069D868B8}"/>
-    <hyperlink ref="B145" r:id="rId150" display="html/replays/POSH-CORE/00051-POSH_ORIT.REP" xr:uid="{03E6A83D-D256-4908-B233-B4D01409897D}"/>
-    <hyperlink ref="C145" r:id="rId151" display="html/replays/ORITAKA/00051-ORIT_POSH.REP" xr:uid="{11F3F0E4-CADB-4685-A978-13D276850621}"/>
-    <hyperlink ref="B146" r:id="rId152" display="html/replays/POSH-CORE/00096-POSH_ORIT.REP" xr:uid="{24D64762-3114-47F8-BDF4-2AF3DD37F61C}"/>
-    <hyperlink ref="C146" r:id="rId153" display="html/replays/ORITAKA/00096-ORIT_POSH.REP" xr:uid="{ACD1154D-68F7-4191-BDBA-235AC42D7FF7}"/>
-    <hyperlink ref="B147" r:id="rId154" display="html/replays/POSH-CORE/00141-POSH_ORIT.REP" xr:uid="{A62C1B32-D74C-4AC1-A8A8-B02357B49B06}"/>
-    <hyperlink ref="C147" r:id="rId155" display="html/replays/ORITAKA/00141-ORIT_POSH.REP" xr:uid="{19DDB3E2-4B88-402A-9BB9-CD8612DEE7C4}"/>
-    <hyperlink ref="B148" r:id="rId156" display="html/replays/POSH-CORE/00186-POSH_ORIT.REP" xr:uid="{10023D3C-B8ED-4C54-95CD-2864825F9373}"/>
-    <hyperlink ref="C148" r:id="rId157" display="html/replays/ORITAKA/00186-ORIT_POSH.REP" xr:uid="{8057A31E-C568-4F96-9E7F-BFF8ECFA4EB1}"/>
-    <hyperlink ref="B149" r:id="rId158" display="html/replays/POSH-CORE/00366-POSH_ORIT.REP" xr:uid="{C813A1B3-C800-4C0D-ACDC-3BF5AC107EB3}"/>
-    <hyperlink ref="C149" r:id="rId159" display="html/replays/ORITAKA/00366-ORIT_POSH.REP" xr:uid="{FB2D833D-122D-4883-87E2-8574026A3417}"/>
+    <hyperlink ref="B141" r:id="rId145" display="html/replays/POSH-CORE/00006-POSH_ORIT.REP" xr:uid="{FFAAB4EC-CA95-40B4-9E97-51088B7A761C}"/>
+    <hyperlink ref="C141" r:id="rId146" display="html/replays/ORITAKA/00006-ORIT_POSH.REP" xr:uid="{B8E893ED-14F2-4CC1-870B-C283E44C230A}"/>
+    <hyperlink ref="B142" r:id="rId147" display="html/replays/POSH-CORE/00007-POSH_CIME.REP" xr:uid="{7F98EA1F-B2CC-410E-921A-D7D3C6EA392C}"/>
+    <hyperlink ref="C142" r:id="rId148" display="html/replays/CIMEX/00007-CIME_POSH.REP" xr:uid="{2C29D367-8947-44C6-8E94-C547E0F670A7}"/>
+    <hyperlink ref="B143" r:id="rId149" display="html/replays/POSH-CORE/00046-POSH_MEGA.REP" xr:uid="{A21A28A3-3BE7-46D9-8EF2-58D069D868B8}"/>
+    <hyperlink ref="B144" r:id="rId150" display="html/replays/POSH-CORE/00051-POSH_ORIT.REP" xr:uid="{03E6A83D-D256-4908-B233-B4D01409897D}"/>
+    <hyperlink ref="C144" r:id="rId151" display="html/replays/ORITAKA/00051-ORIT_POSH.REP" xr:uid="{11F3F0E4-CADB-4685-A978-13D276850621}"/>
+    <hyperlink ref="B145" r:id="rId152" display="html/replays/POSH-CORE/00096-POSH_ORIT.REP" xr:uid="{24D64762-3114-47F8-BDF4-2AF3DD37F61C}"/>
+    <hyperlink ref="C145" r:id="rId153" display="html/replays/ORITAKA/00096-ORIT_POSH.REP" xr:uid="{ACD1154D-68F7-4191-BDBA-235AC42D7FF7}"/>
+    <hyperlink ref="B146" r:id="rId154" display="html/replays/POSH-CORE/00141-POSH_ORIT.REP" xr:uid="{A62C1B32-D74C-4AC1-A8A8-B02357B49B06}"/>
+    <hyperlink ref="C146" r:id="rId155" display="html/replays/ORITAKA/00141-ORIT_POSH.REP" xr:uid="{19DDB3E2-4B88-402A-9BB9-CD8612DEE7C4}"/>
+    <hyperlink ref="B147" r:id="rId156" display="html/replays/POSH-CORE/00186-POSH_ORIT.REP" xr:uid="{10023D3C-B8ED-4C54-95CD-2864825F9373}"/>
+    <hyperlink ref="C147" r:id="rId157" display="html/replays/ORITAKA/00186-ORIT_POSH.REP" xr:uid="{8057A31E-C568-4F96-9E7F-BFF8ECFA4EB1}"/>
+    <hyperlink ref="B148" r:id="rId158" display="html/replays/POSH-CORE/00366-POSH_ORIT.REP" xr:uid="{C813A1B3-C800-4C0D-ACDC-3BF5AC107EB3}"/>
+    <hyperlink ref="C148" r:id="rId159" display="html/replays/ORITAKA/00366-ORIT_POSH.REP" xr:uid="{FB2D833D-122D-4883-87E2-8574026A3417}"/>
     <hyperlink ref="X148" r:id="rId160" display="html/replays/CIMEX/00404-CIME_ZZZK.REP" xr:uid="{4A702588-E210-470F-AFC1-839DC51D005F}"/>
     <hyperlink ref="W148" r:id="rId161" display="html/replays/ZZZKBOT/00404-ZZZK_CIME.REP" xr:uid="{DA06ADC2-2FC5-461F-A32A-EAEBB10ED194}"/>
     <hyperlink ref="X147" r:id="rId162" display="html/replays/ORITAKA/00403-ORIT_ZZZK.REP" xr:uid="{D8A0DD24-FB71-4E6F-AE7C-B10CE6BD739B}"/>
